--- a/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.1477509959079</v>
+        <v>23.69377404274485</v>
       </c>
       <c r="C2">
-        <v>10.7030896748213</v>
+        <v>12.96764439295564</v>
       </c>
       <c r="D2">
-        <v>8.324861991963655</v>
+        <v>2.736745081163493</v>
       </c>
       <c r="E2">
-        <v>6.085954203363465</v>
+        <v>6.410372776920354</v>
       </c>
       <c r="F2">
-        <v>63.93426163559087</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>36.06518078090492</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.751517872324785</v>
+        <v>5.904408920837674</v>
       </c>
       <c r="K2">
-        <v>15.39158883371931</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.090677923122766</v>
+        <v>6.687791743962512</v>
       </c>
       <c r="M2">
-        <v>12.58840191317018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.33390846578345</v>
+      </c>
+      <c r="N2">
+        <v>14.32860630220511</v>
+      </c>
+      <c r="O2">
+        <v>27.46403443054211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.78879234050269</v>
+        <v>22.33146912960457</v>
       </c>
       <c r="C3">
-        <v>9.911083111705405</v>
+        <v>12.07898679705246</v>
       </c>
       <c r="D3">
-        <v>7.953720493072929</v>
+        <v>2.680368405298527</v>
       </c>
       <c r="E3">
-        <v>5.981621228660093</v>
+        <v>6.414000880226508</v>
       </c>
       <c r="F3">
-        <v>60.29937693525258</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>35.27360797873273</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.527901509787137</v>
+        <v>5.943219601128398</v>
       </c>
       <c r="K3">
-        <v>14.24801502025714</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.828386176634445</v>
+        <v>6.615957203662026</v>
       </c>
       <c r="M3">
-        <v>11.68648922303538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.81829570013127</v>
+      </c>
+      <c r="N3">
+        <v>14.59115978084911</v>
+      </c>
+      <c r="O3">
+        <v>26.9216464958793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.91914132260007</v>
+        <v>21.46772764493424</v>
       </c>
       <c r="C4">
-        <v>9.404980155296983</v>
+        <v>11.5044607031558</v>
       </c>
       <c r="D4">
-        <v>7.721865978056183</v>
+        <v>2.645876145068796</v>
       </c>
       <c r="E4">
-        <v>5.920263155050359</v>
+        <v>6.41686865943217</v>
       </c>
       <c r="F4">
-        <v>58.00926904588544</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>34.81253385094335</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.391940713168006</v>
+        <v>5.967644583689433</v>
       </c>
       <c r="K4">
-        <v>13.51493701593082</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.670733986999125</v>
+        <v>6.57443041586572</v>
       </c>
       <c r="M4">
-        <v>11.18837076518477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.50082812334027</v>
+      </c>
+      <c r="N4">
+        <v>14.75541023115952</v>
+      </c>
+      <c r="O4">
+        <v>26.60912812075599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.5556777556058</v>
+        <v>21.10919288482207</v>
       </c>
       <c r="C5">
-        <v>9.193565516923909</v>
+        <v>11.26299197678159</v>
       </c>
       <c r="D5">
-        <v>7.626384679870118</v>
+        <v>2.63183182822302</v>
       </c>
       <c r="E5">
-        <v>5.895920225401657</v>
+        <v>6.418191292217211</v>
       </c>
       <c r="F5">
-        <v>57.06161080630592</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>34.63088685291014</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.336857958296218</v>
+        <v>5.977753291387635</v>
       </c>
       <c r="K5">
-        <v>13.20818782966411</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.607378940829427</v>
+        <v>6.558154518441514</v>
       </c>
       <c r="M5">
-        <v>11.04756857624212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.3713966382791</v>
+      </c>
+      <c r="N5">
+        <v>14.82314508445454</v>
+      </c>
+      <c r="O5">
+        <v>26.48686023227464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.49477146793009</v>
+        <v>21.04927323211096</v>
       </c>
       <c r="C6">
-        <v>9.158142510283408</v>
+        <v>11.22245043685636</v>
       </c>
       <c r="D6">
-        <v>7.610470083875545</v>
+        <v>2.629499939200585</v>
       </c>
       <c r="E6">
-        <v>5.891917509829716</v>
+        <v>6.41842002369573</v>
       </c>
       <c r="F6">
-        <v>56.90339282106483</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>34.60110054472932</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.327730660389447</v>
+        <v>5.979441376317133</v>
       </c>
       <c r="K6">
-        <v>13.15676174256038</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.596913825002683</v>
+        <v>6.555490899213956</v>
       </c>
       <c r="M6">
-        <v>11.02423350144617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.34990596217257</v>
+      </c>
+      <c r="N6">
+        <v>14.83444185343629</v>
+      </c>
+      <c r="O6">
+        <v>26.46686263814633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.91427651544172</v>
+        <v>21.46291838812547</v>
       </c>
       <c r="C7">
-        <v>9.402150133062033</v>
+        <v>11.50123401229214</v>
       </c>
       <c r="D7">
-        <v>7.720582315431162</v>
+        <v>2.645686716268612</v>
       </c>
       <c r="E7">
-        <v>5.919932204834223</v>
+        <v>6.416885882150441</v>
       </c>
       <c r="F7">
-        <v>57.99654652209527</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>34.81005886066431</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.391196557744527</v>
+        <v>5.967780277041741</v>
       </c>
       <c r="K7">
-        <v>13.51083283844188</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.669875903200979</v>
+        <v>6.5742082985034</v>
       </c>
       <c r="M7">
-        <v>11.18646893576393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.49908258773566</v>
+      </c>
+      <c r="N7">
+        <v>14.75632043464349</v>
+      </c>
+      <c r="O7">
+        <v>26.60745868202757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.68635748179187</v>
+        <v>23.22987302612177</v>
       </c>
       <c r="C8">
-        <v>10.43399489103944</v>
+        <v>12.66717993904878</v>
       </c>
       <c r="D8">
-        <v>8.197711501087651</v>
+        <v>2.717268619816731</v>
       </c>
       <c r="E8">
-        <v>6.049407316596261</v>
+        <v>6.411486480850699</v>
       </c>
       <c r="F8">
-        <v>62.69312121746928</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>35.78705114141341</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.674125773746105</v>
+        <v>5.917670876086449</v>
       </c>
       <c r="K8">
-        <v>15.0035509367573</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.999552844722216</v>
+        <v>6.662486546980522</v>
       </c>
       <c r="M8">
-        <v>12.28247375603478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.15639844691212</v>
+      </c>
+      <c r="N8">
+        <v>14.41852604235135</v>
+      </c>
+      <c r="O8">
+        <v>27.27272157580245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.89349544330735</v>
+        <v>26.46887198452739</v>
       </c>
       <c r="C9">
-        <v>12.31008488892279</v>
+        <v>14.72839578547542</v>
       </c>
       <c r="D9">
-        <v>9.10284313288196</v>
+        <v>2.859587267675467</v>
       </c>
       <c r="E9">
-        <v>6.325749380436349</v>
+        <v>6.406330686398147</v>
       </c>
       <c r="F9">
-        <v>71.44210385021246</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>37.90216646906471</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.240681609345579</v>
+        <v>5.823850990926018</v>
       </c>
       <c r="K9">
-        <v>17.69752207418465</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.672131000686785</v>
+        <v>6.85616701812363</v>
       </c>
       <c r="M9">
-        <v>14.4037642556928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.43233847420467</v>
+      </c>
+      <c r="N9">
+        <v>13.7785016742156</v>
+      </c>
+      <c r="O9">
+        <v>28.74301074183724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.10641154573761</v>
+        <v>28.70300910506349</v>
       </c>
       <c r="C10">
-        <v>13.61438109058267</v>
+        <v>16.11159139423477</v>
       </c>
       <c r="D10">
-        <v>9.752268604363772</v>
+        <v>2.966843690389636</v>
       </c>
       <c r="E10">
-        <v>6.544193753458844</v>
+        <v>6.406415564787475</v>
       </c>
       <c r="F10">
-        <v>77.60829247707454</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>39.57981365352831</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.666448417870024</v>
+        <v>5.75721230538072</v>
       </c>
       <c r="K10">
-        <v>19.55386341949488</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.410088861736108</v>
+        <v>7.011171628968563</v>
       </c>
       <c r="M10">
-        <v>15.8614118392727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.35520504791209</v>
+      </c>
+      <c r="N10">
+        <v>13.31937133025349</v>
+      </c>
+      <c r="O10">
+        <v>29.92849225973074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.08760030206671</v>
+        <v>29.68737972134054</v>
       </c>
       <c r="C11">
-        <v>14.19591501966008</v>
+        <v>16.71386588876074</v>
       </c>
       <c r="D11">
-        <v>10.04551353646718</v>
+        <v>3.016608490841263</v>
       </c>
       <c r="E11">
-        <v>6.647435611709255</v>
+        <v>6.407443034904412</v>
       </c>
       <c r="F11">
-        <v>80.36596349177188</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>40.37065386578585</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.863028791437923</v>
+        <v>5.727291721697755</v>
       </c>
       <c r="K11">
-        <v>20.37682824789408</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.75205402362554</v>
+        <v>7.084499280801398</v>
       </c>
       <c r="M11">
-        <v>16.50639402352782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.77094128146959</v>
+      </c>
+      <c r="N11">
+        <v>13.11231907859251</v>
+      </c>
+      <c r="O11">
+        <v>30.49172629980247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.45606174688292</v>
+        <v>30.05557810597687</v>
       </c>
       <c r="C12">
-        <v>14.41486110309955</v>
+        <v>16.93819478015009</v>
       </c>
       <c r="D12">
-        <v>10.15638427258075</v>
+        <v>3.035629927238238</v>
       </c>
       <c r="E12">
-        <v>6.687143598956433</v>
+        <v>6.407988839986084</v>
       </c>
       <c r="F12">
-        <v>81.4045619073174</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>40.67419972120639</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.937980313913215</v>
+        <v>5.716008855125791</v>
       </c>
       <c r="K12">
-        <v>20.68589037958158</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.880319449337232</v>
+        <v>7.112677221513404</v>
       </c>
       <c r="M12">
-        <v>16.74840485239394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.92773620002465</v>
+      </c>
+      <c r="N12">
+        <v>13.0341231149469</v>
+      </c>
+      <c r="O12">
+        <v>30.70856068726555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.37683432775374</v>
+        <v>29.97648180127439</v>
       </c>
       <c r="C13">
-        <v>14.36775589246419</v>
+        <v>16.89004554162601</v>
       </c>
       <c r="D13">
-        <v>10.13251141545624</v>
+        <v>3.031524833703222</v>
       </c>
       <c r="E13">
-        <v>6.678563488986716</v>
+        <v>6.407864066765244</v>
       </c>
       <c r="F13">
-        <v>81.18111166510037</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>40.60864270919408</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.921813657050281</v>
+        <v>5.718436869748804</v>
       </c>
       <c r="K13">
-        <v>20.6194337608794</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.85274646619319</v>
+        <v>7.106590237261168</v>
       </c>
       <c r="M13">
-        <v>16.69637600517721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.89399637612448</v>
+      </c>
+      <c r="N13">
+        <v>13.05095547976287</v>
+      </c>
+      <c r="O13">
+        <v>30.66170168847879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.11797219586849</v>
+        <v>29.71776267229593</v>
       </c>
       <c r="C14">
-        <v>14.21395053254067</v>
+        <v>16.73239567842092</v>
       </c>
       <c r="D14">
-        <v>10.05463750604964</v>
+        <v>3.018169630468587</v>
       </c>
       <c r="E14">
-        <v>6.650689765316365</v>
+        <v>6.407484706911888</v>
       </c>
       <c r="F14">
-        <v>80.45151555996858</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>40.3955444942389</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.869184226515236</v>
+        <v>5.726362579163375</v>
       </c>
       <c r="K14">
-        <v>20.40230335123908</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.762629921301492</v>
+        <v>7.086809233965023</v>
       </c>
       <c r="M14">
-        <v>16.52634671559657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.78385381761018</v>
+      </c>
+      <c r="N14">
+        <v>13.10588192889254</v>
+      </c>
+      <c r="O14">
+        <v>30.5094935564709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.95902754548965</v>
+        <v>29.55869755035164</v>
       </c>
       <c r="C15">
-        <v>14.11958917458197</v>
+        <v>16.63534786681177</v>
       </c>
       <c r="D15">
-        <v>10.00691951509087</v>
+        <v>3.010013345438517</v>
       </c>
       <c r="E15">
-        <v>6.633697971669155</v>
+        <v>6.407273215060462</v>
       </c>
       <c r="F15">
-        <v>80.00391774147776</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>40.26554935038361</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.837016948936499</v>
+        <v>5.731223191068992</v>
       </c>
       <c r="K15">
-        <v>20.26898591816219</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.707277077126561</v>
+        <v>7.074746436541844</v>
       </c>
       <c r="M15">
-        <v>16.42192067105014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.7163045570513</v>
+      </c>
+      <c r="N15">
+        <v>13.13955182962316</v>
+      </c>
+      <c r="O15">
+        <v>30.41672753585614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.04182227248439</v>
+        <v>28.63803691164498</v>
       </c>
       <c r="C16">
-        <v>13.57617400298412</v>
+        <v>16.07170037191464</v>
       </c>
       <c r="D16">
-        <v>9.733071476151565</v>
+        <v>2.963614057181932</v>
       </c>
       <c r="E16">
-        <v>6.537529019577888</v>
+        <v>6.406369510916522</v>
       </c>
       <c r="F16">
-        <v>77.42720907290487</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>39.5286943007921</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.653667193802844</v>
+        <v>5.759174840735129</v>
       </c>
       <c r="K16">
-        <v>19.4996901822309</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.387557455879305</v>
+        <v>7.006436572004048</v>
       </c>
       <c r="M16">
-        <v>15.81892689354883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.32794888031361</v>
+      </c>
+      <c r="N16">
+        <v>13.33293486054319</v>
+      </c>
+      <c r="O16">
+        <v>29.8921740554707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.47299505558698</v>
+        <v>28.06506555372074</v>
       </c>
       <c r="C17">
-        <v>13.2400667012668</v>
+        <v>15.71911124636983</v>
       </c>
       <c r="D17">
-        <v>9.564602966705902</v>
+        <v>2.935423545012004</v>
       </c>
       <c r="E17">
-        <v>6.479559532390024</v>
+        <v>6.406078092184635</v>
       </c>
       <c r="F17">
-        <v>75.83506046981211</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>39.08379964091679</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.541989196014079</v>
+        <v>5.776416823869359</v>
       </c>
       <c r="K17">
-        <v>19.0225861017093</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.18901563224434</v>
+        <v>6.965255069433672</v>
       </c>
       <c r="M17">
-        <v>15.4446185535014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.08861778273936</v>
+      </c>
+      <c r="N17">
+        <v>13.4519974816518</v>
+      </c>
+      <c r="O17">
+        <v>29.57658013043283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.14338289278453</v>
+        <v>27.7324950661165</v>
       </c>
       <c r="C18">
-        <v>13.04560669852662</v>
+        <v>15.51376594404627</v>
       </c>
       <c r="D18">
-        <v>9.467488544137089</v>
+        <v>2.919298276587946</v>
       </c>
       <c r="E18">
-        <v>6.446577267131246</v>
+        <v>6.406002568810834</v>
       </c>
       <c r="F18">
-        <v>74.91475436090106</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>38.83050499704208</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.478020616713403</v>
+        <v>5.786371611678262</v>
       </c>
       <c r="K18">
-        <v>18.74610994068175</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.073876440728323</v>
+        <v>6.941833115110387</v>
       </c>
       <c r="M18">
-        <v>15.22759606083239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.9505781793467</v>
+      </c>
+      <c r="N18">
+        <v>13.52065248492441</v>
+      </c>
+      <c r="O18">
+        <v>29.39730586204053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.03134746049414</v>
+        <v>27.61937484337903</v>
       </c>
       <c r="C19">
-        <v>12.97955823599967</v>
+        <v>15.44379846460719</v>
       </c>
       <c r="D19">
-        <v>9.434566577014246</v>
+        <v>2.913852809343559</v>
       </c>
       <c r="E19">
-        <v>6.435470419511111</v>
+        <v>6.405992405159358</v>
       </c>
       <c r="F19">
-        <v>74.60234460772793</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>38.74518756550632</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.456405119636454</v>
+        <v>5.789748865674622</v>
       </c>
       <c r="K19">
-        <v>18.6521320363024</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.034724966411096</v>
+        <v>6.9339481448969</v>
       </c>
       <c r="M19">
-        <v>15.15380840609899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.9037764987421</v>
+      </c>
+      <c r="N19">
+        <v>13.54392914359832</v>
+      </c>
+      <c r="O19">
+        <v>29.33698976625342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.53379618369139</v>
+        <v>28.12637104000209</v>
       </c>
       <c r="C20">
-        <v>13.27596101585602</v>
+        <v>15.75690745544146</v>
       </c>
       <c r="D20">
-        <v>9.582558173782207</v>
+        <v>2.938414993644204</v>
       </c>
       <c r="E20">
-        <v>6.485692835738685</v>
+        <v>6.406099484210853</v>
       </c>
       <c r="F20">
-        <v>76.00501052188062</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>39.13089009995922</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.553849414643109</v>
+        <v>5.774577552101758</v>
       </c>
       <c r="K20">
-        <v>19.07358424667977</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.210247077953397</v>
+        <v>6.969611496388032</v>
       </c>
       <c r="M20">
-        <v>15.48464087748042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.1141350238205</v>
+      </c>
+      <c r="N20">
+        <v>13.43930547744231</v>
+      </c>
+      <c r="O20">
+        <v>29.60994239756549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.19408515686364</v>
+        <v>29.79387803297554</v>
       </c>
       <c r="C21">
-        <v>14.25915751464553</v>
+        <v>16.77880160099387</v>
       </c>
       <c r="D21">
-        <v>10.07751440244561</v>
+        <v>3.022087269921584</v>
       </c>
       <c r="E21">
-        <v>6.658859814252195</v>
+        <v>6.407591754402911</v>
       </c>
       <c r="F21">
-        <v>80.66595880788844</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>40.45802516989129</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.884628019819495</v>
+        <v>5.724033397217754</v>
       </c>
       <c r="K21">
-        <v>20.46614520269475</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.789131009574296</v>
+        <v>7.092608203133581</v>
       </c>
       <c r="M21">
-        <v>16.576345653138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.81622286485308</v>
+      </c>
+      <c r="N21">
+        <v>13.0897434009169</v>
+      </c>
+      <c r="O21">
+        <v>30.55410346582091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.26149570391254</v>
+        <v>30.8862672077843</v>
       </c>
       <c r="C22">
-        <v>14.89459982587592</v>
+        <v>17.42494567349272</v>
       </c>
       <c r="D22">
-        <v>10.40007227246952</v>
+        <v>3.077821698686473</v>
       </c>
       <c r="E22">
-        <v>6.775641511731997</v>
+        <v>6.409488873641705</v>
       </c>
       <c r="F22">
-        <v>83.67987943477615</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>41.34919042193449</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.10385239592536</v>
+        <v>5.691271283642911</v>
       </c>
       <c r="K22">
-        <v>21.36155299674644</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.160413658054393</v>
+        <v>7.175389656593326</v>
       </c>
       <c r="M22">
-        <v>17.27706390879726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.27136969226602</v>
+      </c>
+      <c r="N22">
+        <v>12.86248523708423</v>
+      </c>
+      <c r="O22">
+        <v>31.19192724963061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.69319911094906</v>
+        <v>30.29206764931985</v>
       </c>
       <c r="C23">
-        <v>14.55594228178356</v>
+        <v>17.08202555381391</v>
       </c>
       <c r="D23">
-        <v>10.22794521501239</v>
+        <v>3.047965783520954</v>
       </c>
       <c r="E23">
-        <v>6.712960564706918</v>
+        <v>6.408386631025145</v>
       </c>
       <c r="F23">
-        <v>82.07378014283255</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>40.87133957451455</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.986531548939226</v>
+        <v>5.708735480932303</v>
       </c>
       <c r="K23">
-        <v>20.88480850974919</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.96282606251723</v>
+        <v>7.130986014881938</v>
       </c>
       <c r="M23">
-        <v>16.9041047640079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.02879813697716</v>
+      </c>
+      <c r="N23">
+        <v>12.98368429659893</v>
+      </c>
+      <c r="O23">
+        <v>30.84956738251637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.50631608939776</v>
+        <v>28.09866467927771</v>
       </c>
       <c r="C24">
-        <v>13.25973705054174</v>
+        <v>15.7398280134342</v>
       </c>
       <c r="D24">
-        <v>9.574441443237717</v>
+        <v>2.937062307533275</v>
       </c>
       <c r="E24">
-        <v>6.48291889817002</v>
+        <v>6.406089527331869</v>
       </c>
       <c r="F24">
-        <v>75.92819162980328</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>39.10959278145594</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.548486679557787</v>
+        <v>5.775408954920224</v>
       </c>
       <c r="K24">
-        <v>19.05053482130263</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.200651454022006</v>
+        <v>6.96764116549353</v>
       </c>
       <c r="M24">
-        <v>15.46655250474376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.10260006110268</v>
+      </c>
+      <c r="N24">
+        <v>13.44504289240373</v>
+      </c>
+      <c r="O24">
+        <v>29.59485258108321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.05271127987284</v>
+        <v>25.61787615084733</v>
       </c>
       <c r="C25">
-        <v>11.81683419688355</v>
+        <v>14.19429329761295</v>
       </c>
       <c r="D25">
-        <v>8.861022497605083</v>
+        <v>2.82073211627126</v>
       </c>
       <c r="E25">
-        <v>6.24843087633628</v>
+        <v>6.407090333126717</v>
       </c>
       <c r="F25">
-        <v>69.12350751936748</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>37.30844482887728</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.085960458451682</v>
+        <v>5.848797158154147</v>
       </c>
       <c r="K25">
-        <v>16.9918680770152</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.487440768697431</v>
+        <v>6.801553550604114</v>
       </c>
       <c r="M25">
-        <v>13.84874341802251</v>
+        <v>15.08932497352994</v>
+      </c>
+      <c r="N25">
+        <v>13.94950445117389</v>
+      </c>
+      <c r="O25">
+        <v>28.32709252373115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.69377404274485</v>
+        <v>26.8419038123197</v>
       </c>
       <c r="C2">
-        <v>12.96764439295564</v>
+        <v>15.27742454473767</v>
       </c>
       <c r="D2">
-        <v>2.736745081163493</v>
+        <v>2.964373938914771</v>
       </c>
       <c r="E2">
-        <v>6.410372776920354</v>
+        <v>5.975648813916917</v>
       </c>
       <c r="F2">
-        <v>36.06518078090492</v>
+        <v>44.74491872594569</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.904408920837674</v>
+        <v>5.869012835635781</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.687791743962512</v>
+        <v>6.741911288698335</v>
       </c>
       <c r="M2">
-        <v>14.33390846578345</v>
+        <v>15.7463554986722</v>
       </c>
       <c r="N2">
-        <v>14.32860630220511</v>
+        <v>16.06522374863917</v>
       </c>
       <c r="O2">
-        <v>27.46403443054211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.33146912960457</v>
+        <v>25.3703615079927</v>
       </c>
       <c r="C3">
-        <v>12.07898679705246</v>
+        <v>14.16769389925913</v>
       </c>
       <c r="D3">
-        <v>2.680368405298527</v>
+        <v>2.76165560991705</v>
       </c>
       <c r="E3">
-        <v>6.414000880226508</v>
+        <v>5.90677107041608</v>
       </c>
       <c r="F3">
-        <v>35.27360797873273</v>
+        <v>43.53204268456072</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.943219601128398</v>
+        <v>5.901529490151346</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.615957203662026</v>
+        <v>6.685167623369405</v>
       </c>
       <c r="M3">
-        <v>13.81829570013127</v>
+        <v>15.20711870699525</v>
       </c>
       <c r="N3">
-        <v>14.59115978084911</v>
+        <v>16.26540190763109</v>
       </c>
       <c r="O3">
-        <v>26.9216464958793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46772764493424</v>
+        <v>24.44768739852617</v>
       </c>
       <c r="C4">
-        <v>11.5044607031558</v>
+        <v>13.45395504266324</v>
       </c>
       <c r="D4">
-        <v>2.645876145068796</v>
+        <v>2.710334400170329</v>
       </c>
       <c r="E4">
-        <v>6.41686865943217</v>
+        <v>5.864683464613107</v>
       </c>
       <c r="F4">
-        <v>34.81253385094335</v>
+        <v>42.81374710640543</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.967644583689433</v>
+        <v>5.921943008893543</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.57443041586572</v>
+        <v>6.653640648552453</v>
       </c>
       <c r="M4">
-        <v>13.50082812334027</v>
+        <v>14.87912322921891</v>
       </c>
       <c r="N4">
-        <v>14.75541023115952</v>
+        <v>16.39287253228642</v>
       </c>
       <c r="O4">
-        <v>26.60912812075599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.10919288482207</v>
+        <v>24.06721075364999</v>
       </c>
       <c r="C5">
-        <v>11.26299197678159</v>
+        <v>13.15482820446921</v>
       </c>
       <c r="D5">
-        <v>2.63183182822302</v>
+        <v>2.691919004275125</v>
       </c>
       <c r="E5">
-        <v>6.418191292217211</v>
+        <v>5.847561052928406</v>
       </c>
       <c r="F5">
-        <v>34.63088685291014</v>
+        <v>42.52766332680363</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.977753291387635</v>
+        <v>5.930380489906437</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.558154518441514</v>
+        <v>6.641608672083223</v>
       </c>
       <c r="M5">
-        <v>13.3713966382791</v>
+        <v>14.74635974159045</v>
       </c>
       <c r="N5">
-        <v>14.82314508445454</v>
+        <v>16.44594502111195</v>
       </c>
       <c r="O5">
-        <v>26.48686023227464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.04927323211096</v>
+        <v>24.00377396951832</v>
       </c>
       <c r="C6">
-        <v>11.22245043685636</v>
+        <v>13.10465517944764</v>
       </c>
       <c r="D6">
-        <v>2.629499939200585</v>
+        <v>2.688908408665523</v>
       </c>
       <c r="E6">
-        <v>6.41842002369573</v>
+        <v>5.844719001473877</v>
       </c>
       <c r="F6">
-        <v>34.60110054472932</v>
+        <v>42.48055934690612</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.979441376317133</v>
+        <v>5.9317888733164</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.555490899213956</v>
+        <v>6.639659512270201</v>
       </c>
       <c r="M6">
-        <v>13.34990596217257</v>
+        <v>14.72437241063815</v>
       </c>
       <c r="N6">
-        <v>14.83444185343629</v>
+        <v>16.45482525126886</v>
       </c>
       <c r="O6">
-        <v>26.46686263814633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.46291838812547</v>
+        <v>24.44257378347364</v>
       </c>
       <c r="C7">
-        <v>11.50123401229214</v>
+        <v>13.44995457427231</v>
       </c>
       <c r="D7">
-        <v>2.645686716268612</v>
+        <v>2.710082850033616</v>
       </c>
       <c r="E7">
-        <v>6.416885882150441</v>
+        <v>5.864452458054451</v>
       </c>
       <c r="F7">
-        <v>34.81005886066431</v>
+        <v>42.80986205866613</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.967780277041741</v>
+        <v>5.922056310900837</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.5742082985034</v>
+        <v>6.653475102361192</v>
       </c>
       <c r="M7">
-        <v>13.49908258773566</v>
+        <v>14.87732893358874</v>
       </c>
       <c r="N7">
-        <v>14.75632043464349</v>
+        <v>16.39358374538599</v>
       </c>
       <c r="O7">
-        <v>26.60745868202757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.22987302612177</v>
+        <v>26.33865937917922</v>
       </c>
       <c r="C8">
-        <v>12.66717993904878</v>
+        <v>14.90141841101037</v>
       </c>
       <c r="D8">
-        <v>2.717268619816731</v>
+        <v>2.895314866897755</v>
       </c>
       <c r="E8">
-        <v>6.411486480850699</v>
+        <v>5.951843169284313</v>
       </c>
       <c r="F8">
-        <v>35.78705114141341</v>
+        <v>44.32122307781643</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.917670876086449</v>
+        <v>5.880135386528317</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.662486546980522</v>
+        <v>6.721647437531897</v>
       </c>
       <c r="M8">
-        <v>14.15639844691212</v>
+        <v>15.55984935929432</v>
       </c>
       <c r="N8">
-        <v>14.41852604235135</v>
+        <v>16.13328554328515</v>
       </c>
       <c r="O8">
-        <v>27.27272157580245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.46887198452739</v>
+        <v>29.89531747368754</v>
       </c>
       <c r="C9">
-        <v>14.72839578547542</v>
+        <v>17.49808904765637</v>
       </c>
       <c r="D9">
-        <v>2.859587267675467</v>
+        <v>3.380117617414033</v>
       </c>
       <c r="E9">
-        <v>6.406330686398147</v>
+        <v>6.125992059614477</v>
       </c>
       <c r="F9">
-        <v>37.90216646906471</v>
+        <v>47.49655912726761</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.823850990926018</v>
+        <v>5.8011822639547</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.85616701812363</v>
+        <v>6.88246788152793</v>
       </c>
       <c r="M9">
-        <v>15.43233847420467</v>
+        <v>16.91868408436923</v>
       </c>
       <c r="N9">
-        <v>13.7785016742156</v>
+        <v>15.66015749699992</v>
       </c>
       <c r="O9">
-        <v>28.74301074183724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.70300910506349</v>
+        <v>32.40385592362915</v>
       </c>
       <c r="C10">
-        <v>16.11159139423477</v>
+        <v>19.2651531770698</v>
       </c>
       <c r="D10">
-        <v>2.966843690389636</v>
+        <v>3.720831729771683</v>
       </c>
       <c r="E10">
-        <v>6.406415564787475</v>
+        <v>6.257508172944977</v>
       </c>
       <c r="F10">
-        <v>39.57981365352831</v>
+        <v>49.96443870535366</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.75721230538072</v>
+        <v>5.744692529681872</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.011171628968563</v>
+        <v>7.018437059417552</v>
       </c>
       <c r="M10">
-        <v>16.35520504791209</v>
+        <v>17.92575966605866</v>
       </c>
       <c r="N10">
-        <v>13.31937133025349</v>
+        <v>15.33735415727539</v>
       </c>
       <c r="O10">
-        <v>29.92849225973074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.68737972134054</v>
+        <v>33.52298737646964</v>
       </c>
       <c r="C11">
-        <v>16.71386588876074</v>
+        <v>20.0415155366847</v>
       </c>
       <c r="D11">
-        <v>3.016608490841263</v>
+        <v>3.873401340950432</v>
       </c>
       <c r="E11">
-        <v>6.407443034904412</v>
+        <v>6.318619543272986</v>
       </c>
       <c r="F11">
-        <v>40.37065386578585</v>
+        <v>51.11900319566527</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.727291721697755</v>
+        <v>5.719205428480532</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.084499280801398</v>
+        <v>7.084483499417369</v>
       </c>
       <c r="M11">
-        <v>16.77094128146959</v>
+        <v>18.38564014377497</v>
       </c>
       <c r="N11">
-        <v>13.11231907859251</v>
+        <v>15.19652625125527</v>
       </c>
       <c r="O11">
-        <v>30.49172629980247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.05557810597687</v>
+        <v>33.94378070985925</v>
       </c>
       <c r="C12">
-        <v>16.93819478015009</v>
+        <v>20.33184655471074</v>
       </c>
       <c r="D12">
-        <v>3.035629927238238</v>
+        <v>3.930919768972713</v>
       </c>
       <c r="E12">
-        <v>6.407988839986084</v>
+        <v>6.341996153411188</v>
       </c>
       <c r="F12">
-        <v>40.67419972120639</v>
+        <v>51.56111898395087</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.716008855125791</v>
+        <v>5.709573245971781</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.112677221513404</v>
+        <v>7.110127750314875</v>
       </c>
       <c r="M12">
-        <v>16.92773620002465</v>
+        <v>18.56007089161361</v>
       </c>
       <c r="N12">
-        <v>13.0341231149469</v>
+        <v>15.14413466322687</v>
       </c>
       <c r="O12">
-        <v>30.70856068726555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.97648180127439</v>
+        <v>33.85328493602576</v>
       </c>
       <c r="C13">
-        <v>16.89004554162601</v>
+        <v>20.2694762814452</v>
       </c>
       <c r="D13">
-        <v>3.031524833703222</v>
+        <v>3.918541923435609</v>
       </c>
       <c r="E13">
-        <v>6.407864066765244</v>
+        <v>6.336950233316066</v>
       </c>
       <c r="F13">
-        <v>40.60864270919408</v>
+        <v>51.46567692497794</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.718436869748804</v>
+        <v>5.711647043606551</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.106590237261168</v>
+        <v>7.104576063132997</v>
       </c>
       <c r="M13">
-        <v>16.89399637612448</v>
+        <v>18.52249053431687</v>
       </c>
       <c r="N13">
-        <v>13.05095547976287</v>
+        <v>15.15537514135533</v>
       </c>
       <c r="O13">
-        <v>30.66170168847879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.71776267229593</v>
+        <v>33.55766506274771</v>
       </c>
       <c r="C14">
-        <v>16.73239567842092</v>
+        <v>20.06547278648371</v>
       </c>
       <c r="D14">
-        <v>3.018169630468587</v>
+        <v>3.878137974698421</v>
       </c>
       <c r="E14">
-        <v>6.407484706911888</v>
+        <v>6.320537720996964</v>
       </c>
       <c r="F14">
-        <v>40.3955444942389</v>
+        <v>51.15527576073974</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.726362579163375</v>
+        <v>5.718412665581039</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.086809233965023</v>
+        <v>7.086580368266902</v>
       </c>
       <c r="M14">
-        <v>16.78385381761018</v>
+        <v>18.39998464741929</v>
       </c>
       <c r="N14">
-        <v>13.10588192889254</v>
+        <v>15.19219671769758</v>
       </c>
       <c r="O14">
-        <v>30.5094935564709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.55869755035164</v>
+        <v>33.37620563806611</v>
       </c>
       <c r="C15">
-        <v>16.63534786681177</v>
+        <v>19.94004741327855</v>
       </c>
       <c r="D15">
-        <v>3.010013345438517</v>
+        <v>3.853358985190508</v>
       </c>
       <c r="E15">
-        <v>6.407273215060462</v>
+        <v>6.310516835491079</v>
       </c>
       <c r="F15">
-        <v>40.26554935038361</v>
+        <v>50.96579647935041</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.731223191068992</v>
+        <v>5.722558958649556</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.074746436541844</v>
+        <v>7.075641039455456</v>
       </c>
       <c r="M15">
-        <v>16.7163045570513</v>
+        <v>18.3249848741144</v>
       </c>
       <c r="N15">
-        <v>13.13955182962316</v>
+        <v>15.21487541380036</v>
       </c>
       <c r="O15">
-        <v>30.41672753585614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.63803691164498</v>
+        <v>32.33028725449974</v>
       </c>
       <c r="C16">
-        <v>16.07170037191464</v>
+        <v>19.21388701786651</v>
       </c>
       <c r="D16">
-        <v>2.963614057181932</v>
+        <v>3.710819732074108</v>
       </c>
       <c r="E16">
-        <v>6.406369510916522</v>
+        <v>6.253544362239969</v>
       </c>
       <c r="F16">
-        <v>39.5286943007921</v>
+        <v>49.8896521384011</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.759174840735129</v>
+        <v>5.746361492554842</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.006436572004048</v>
+        <v>7.014207682512343</v>
       </c>
       <c r="M16">
-        <v>16.32794888031361</v>
+        <v>17.89574250257847</v>
       </c>
       <c r="N16">
-        <v>13.33293486054319</v>
+        <v>15.34668442954615</v>
       </c>
       <c r="O16">
-        <v>29.8921740554707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.06506555372074</v>
+        <v>31.68310123262319</v>
       </c>
       <c r="C17">
-        <v>15.71911124636983</v>
+        <v>18.76156664108905</v>
       </c>
       <c r="D17">
-        <v>2.935423545012004</v>
+        <v>3.622816987640741</v>
       </c>
       <c r="E17">
-        <v>6.406078092184635</v>
+        <v>6.218955808906494</v>
       </c>
       <c r="F17">
-        <v>39.08379964091679</v>
+        <v>49.23783957946505</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.776416823869359</v>
+        <v>5.761010020223362</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.965255069433672</v>
+        <v>6.977614845838934</v>
       </c>
       <c r="M17">
-        <v>16.08861778273936</v>
+        <v>17.63287582331235</v>
       </c>
       <c r="N17">
-        <v>13.4519974816518</v>
+        <v>15.42913212971452</v>
       </c>
       <c r="O17">
-        <v>29.57658013043283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.7324950661165</v>
+        <v>31.30876886712138</v>
       </c>
       <c r="C18">
-        <v>15.51376594404627</v>
+        <v>18.49879727980655</v>
       </c>
       <c r="D18">
-        <v>2.919298276587946</v>
+        <v>3.571965771086075</v>
       </c>
       <c r="E18">
-        <v>6.406002568810834</v>
+        <v>6.199178782667101</v>
       </c>
       <c r="F18">
-        <v>38.83050499704208</v>
+        <v>48.86591321069167</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.786371611678262</v>
+        <v>5.769455998596919</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.941833115110387</v>
+        <v>6.956960215697302</v>
       </c>
       <c r="M18">
-        <v>15.9505781793467</v>
+        <v>17.48184297938272</v>
       </c>
       <c r="N18">
-        <v>13.52065248492441</v>
+        <v>15.47711505275454</v>
       </c>
       <c r="O18">
-        <v>29.39730586204053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.61937484337903</v>
+        <v>31.18166415568874</v>
       </c>
       <c r="C19">
-        <v>15.44379846460719</v>
+        <v>18.4093721686711</v>
       </c>
       <c r="D19">
-        <v>2.913852809343559</v>
+        <v>3.554705596751361</v>
       </c>
       <c r="E19">
-        <v>6.405992405159358</v>
+        <v>6.192501379458156</v>
       </c>
       <c r="F19">
-        <v>38.74518756550632</v>
+        <v>48.74048900394326</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.789748865674622</v>
+        <v>5.772319502931381</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.9339481448969</v>
+        <v>6.950033477807849</v>
       </c>
       <c r="M19">
-        <v>15.9037764987421</v>
+        <v>17.43073322616996</v>
       </c>
       <c r="N19">
-        <v>13.54392914359832</v>
+        <v>15.49345570382852</v>
       </c>
       <c r="O19">
-        <v>29.33698976625342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.12637104000209</v>
+        <v>31.75221048241831</v>
       </c>
       <c r="C20">
-        <v>15.75690745544146</v>
+        <v>18.8099847131618</v>
       </c>
       <c r="D20">
-        <v>2.938414993644204</v>
+        <v>3.632208664957194</v>
       </c>
       <c r="E20">
-        <v>6.406099484210853</v>
+        <v>6.222625330480685</v>
       </c>
       <c r="F20">
-        <v>39.13089009995922</v>
+        <v>49.30691586428326</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.774577552101758</v>
+        <v>5.759448610036378</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.969611496388032</v>
+        <v>6.981469374525479</v>
       </c>
       <c r="M20">
-        <v>16.1141350238205</v>
+        <v>17.66084165698702</v>
       </c>
       <c r="N20">
-        <v>13.43930547744231</v>
+        <v>15.42029688257549</v>
       </c>
       <c r="O20">
-        <v>29.60994239756549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.79387803297554</v>
+        <v>33.6445753145389</v>
       </c>
       <c r="C21">
-        <v>16.77880160099387</v>
+        <v>20.12549037065038</v>
       </c>
       <c r="D21">
-        <v>3.022087269921584</v>
+        <v>3.890011744530509</v>
       </c>
       <c r="E21">
-        <v>6.407591754402911</v>
+        <v>6.325351650163428</v>
       </c>
       <c r="F21">
-        <v>40.45802516989129</v>
+        <v>51.24631183786881</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.724033397217754</v>
+        <v>5.71642501106771</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.092608203133581</v>
+        <v>7.0918486651094</v>
       </c>
       <c r="M21">
-        <v>16.81622286485308</v>
+        <v>18.4359594326092</v>
       </c>
       <c r="N21">
-        <v>13.0897434009169</v>
+        <v>15.18135524792247</v>
       </c>
       <c r="O21">
-        <v>30.55410346582091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.8862672077843</v>
+        <v>34.86402182662277</v>
       </c>
       <c r="C22">
-        <v>17.42494567349272</v>
+        <v>20.96408003950422</v>
       </c>
       <c r="D22">
-        <v>3.077821698686473</v>
+        <v>4.057060521278501</v>
       </c>
       <c r="E22">
-        <v>6.409488873641705</v>
+        <v>6.393889215206068</v>
       </c>
       <c r="F22">
-        <v>41.34919042193449</v>
+        <v>52.54265442842539</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.691271283642911</v>
+        <v>5.688412555020033</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.175389656593326</v>
+        <v>7.167700968716733</v>
       </c>
       <c r="M22">
-        <v>17.27136969226602</v>
+        <v>18.9442442487824</v>
       </c>
       <c r="N22">
-        <v>12.86248523708423</v>
+        <v>15.03069983114804</v>
       </c>
       <c r="O22">
-        <v>31.19192724963061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.29206764931985</v>
+        <v>34.21468431939883</v>
       </c>
       <c r="C23">
-        <v>17.08202555381391</v>
+        <v>20.51833819750426</v>
       </c>
       <c r="D23">
-        <v>3.047965783520954</v>
+        <v>3.968000835172798</v>
       </c>
       <c r="E23">
-        <v>6.408386631025145</v>
+        <v>6.357162364621566</v>
       </c>
       <c r="F23">
-        <v>40.87133957451455</v>
+        <v>51.84799841199562</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.708735480932303</v>
+        <v>5.70335764058826</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.130986014881938</v>
+        <v>7.126865838930587</v>
       </c>
       <c r="M23">
-        <v>17.02879813697716</v>
+        <v>18.6727860726084</v>
       </c>
       <c r="N23">
-        <v>12.98368429659893</v>
+        <v>15.11057541921188</v>
       </c>
       <c r="O23">
-        <v>30.84956738251637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.09866467927771</v>
+        <v>31.72097323056719</v>
       </c>
       <c r="C24">
-        <v>15.7398280134342</v>
+        <v>18.78810340996415</v>
       </c>
       <c r="D24">
-        <v>2.937062307533275</v>
+        <v>3.627963495711632</v>
       </c>
       <c r="E24">
-        <v>6.406089527331869</v>
+        <v>6.220966005835974</v>
       </c>
       <c r="F24">
-        <v>39.10959278145594</v>
+        <v>49.27567774794317</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.775408954920224</v>
+        <v>5.760154446938462</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.96764116549353</v>
+        <v>6.97972555116689</v>
       </c>
       <c r="M24">
-        <v>16.10260006110268</v>
+        <v>17.64819801662221</v>
       </c>
       <c r="N24">
-        <v>13.44504289240373</v>
+        <v>15.4242894882336</v>
       </c>
       <c r="O24">
-        <v>29.59485258108321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.61787615084733</v>
+        <v>28.95141361144227</v>
       </c>
       <c r="C25">
-        <v>14.19429329761295</v>
+        <v>16.82125431785579</v>
       </c>
       <c r="D25">
-        <v>2.82073211627126</v>
+        <v>3.251960691994635</v>
       </c>
       <c r="E25">
-        <v>6.407090333126717</v>
+        <v>6.078405291368029</v>
       </c>
       <c r="F25">
-        <v>37.30844482887728</v>
+        <v>46.61446194368116</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.848797158154147</v>
+        <v>5.822238179494755</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.801553550604114</v>
+        <v>6.835932045192897</v>
       </c>
       <c r="M25">
-        <v>15.08932497352994</v>
+        <v>16.5493823677427</v>
       </c>
       <c r="N25">
-        <v>13.94950445117389</v>
+        <v>15.78397458661625</v>
       </c>
       <c r="O25">
-        <v>28.32709252373115</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.8419038123197</v>
+        <v>29.22024917866318</v>
       </c>
       <c r="C2">
-        <v>15.27742454473767</v>
+        <v>11.00672983195734</v>
       </c>
       <c r="D2">
-        <v>2.964373938914771</v>
+        <v>3.364191789476627</v>
       </c>
       <c r="E2">
-        <v>5.975648813916917</v>
+        <v>9.278120118370197</v>
       </c>
       <c r="F2">
-        <v>44.74491872594569</v>
+        <v>57.5062078401759</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.869012835635781</v>
+        <v>9.681245611534154</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.741911288698335</v>
+        <v>11.66435812607003</v>
       </c>
       <c r="M2">
-        <v>15.7463554986722</v>
+        <v>22.33059044669318</v>
       </c>
       <c r="N2">
-        <v>16.06522374863917</v>
+        <v>23.80895137667823</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.3703615079927</v>
+        <v>28.98779264211914</v>
       </c>
       <c r="C3">
-        <v>14.16769389925913</v>
+        <v>10.67435376955665</v>
       </c>
       <c r="D3">
-        <v>2.76165560991705</v>
+        <v>3.30457038433875</v>
       </c>
       <c r="E3">
-        <v>5.90677107041608</v>
+        <v>9.263235039810688</v>
       </c>
       <c r="F3">
-        <v>43.53204268456072</v>
+        <v>57.42628700465424</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.901529490151346</v>
+        <v>9.69077701673036</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.685167623369405</v>
+        <v>11.68308512607789</v>
       </c>
       <c r="M3">
-        <v>15.20711870699525</v>
+        <v>22.30601294436337</v>
       </c>
       <c r="N3">
-        <v>16.26540190763109</v>
+        <v>23.8646259361642</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.44768739852617</v>
+        <v>28.85223907291062</v>
       </c>
       <c r="C4">
-        <v>13.45395504266324</v>
+        <v>10.46883087925419</v>
       </c>
       <c r="D4">
-        <v>2.710334400170329</v>
+        <v>3.266873852803161</v>
       </c>
       <c r="E4">
-        <v>5.864683464613107</v>
+        <v>9.253889449250906</v>
       </c>
       <c r="F4">
-        <v>42.81374710640543</v>
+        <v>57.38978736585815</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.921943008893543</v>
+        <v>9.696921398371403</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.653640648552453</v>
+        <v>11.69613837047859</v>
       </c>
       <c r="M4">
-        <v>14.87912322921891</v>
+        <v>22.29553293496961</v>
       </c>
       <c r="N4">
-        <v>16.39287253228642</v>
+        <v>23.90079462990975</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.06721075364999</v>
+        <v>28.79885519298293</v>
       </c>
       <c r="C5">
-        <v>13.15482820446921</v>
+        <v>10.38486423289621</v>
       </c>
       <c r="D5">
-        <v>2.691919004275125</v>
+        <v>3.251244784431611</v>
       </c>
       <c r="E5">
-        <v>5.847561052928406</v>
+        <v>9.250028918751992</v>
       </c>
       <c r="F5">
-        <v>42.52766332680363</v>
+        <v>57.37807621702721</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.930380489906437</v>
+        <v>9.699498972866806</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.641608672083223</v>
+        <v>11.70184883001624</v>
       </c>
       <c r="M5">
-        <v>14.74635974159045</v>
+        <v>22.29242433019914</v>
       </c>
       <c r="N5">
-        <v>16.44594502111195</v>
+        <v>23.9160327916494</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.00377396951832</v>
+        <v>28.79010431185187</v>
       </c>
       <c r="C6">
-        <v>13.10465517944764</v>
+        <v>10.37091317956722</v>
       </c>
       <c r="D6">
-        <v>2.688908408665523</v>
+        <v>3.248633628645783</v>
       </c>
       <c r="E6">
-        <v>5.844719001473877</v>
+        <v>9.249384723398993</v>
       </c>
       <c r="F6">
-        <v>42.48055934690612</v>
+        <v>57.37632260536536</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.9317888733164</v>
+        <v>9.699931435075955</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.639659512270201</v>
+        <v>11.7028206774359</v>
       </c>
       <c r="M6">
-        <v>14.72437241063815</v>
+        <v>22.291978399294</v>
       </c>
       <c r="N6">
-        <v>16.45482525126886</v>
+        <v>23.91859322781201</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.44257378347364</v>
+        <v>28.85151154278624</v>
       </c>
       <c r="C7">
-        <v>13.44995457427231</v>
+        <v>10.46769914173189</v>
       </c>
       <c r="D7">
-        <v>2.710082850033616</v>
+        <v>3.26666414788081</v>
       </c>
       <c r="E7">
-        <v>5.864452458054451</v>
+        <v>9.253837596224011</v>
       </c>
       <c r="F7">
-        <v>42.80986205866613</v>
+        <v>57.38961661962462</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.922056310900837</v>
+        <v>9.696955861751029</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.653475102361192</v>
+        <v>11.69621379973292</v>
       </c>
       <c r="M7">
-        <v>14.87732893358874</v>
+        <v>22.29548630309991</v>
       </c>
       <c r="N7">
-        <v>16.39358374538599</v>
+        <v>23.90099811602124</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.33865937917922</v>
+        <v>29.13864049072113</v>
       </c>
       <c r="C8">
-        <v>14.90141841101037</v>
+        <v>10.89251240622492</v>
       </c>
       <c r="D8">
-        <v>2.895314866897755</v>
+        <v>3.343864014672215</v>
       </c>
       <c r="E8">
-        <v>5.951843169284313</v>
+        <v>9.27303033332274</v>
       </c>
       <c r="F8">
-        <v>44.32122307781643</v>
+        <v>57.47604333462403</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.880135386528317</v>
+        <v>9.684471572823725</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.721647437531897</v>
+        <v>11.67049262073112</v>
       </c>
       <c r="M8">
-        <v>15.55984935929432</v>
+        <v>22.32116101448043</v>
       </c>
       <c r="N8">
-        <v>16.13328554328515</v>
+        <v>23.8277362199942</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.89531747368754</v>
+        <v>29.75623174826032</v>
       </c>
       <c r="C9">
-        <v>17.49808904765637</v>
+        <v>11.70804933666533</v>
       </c>
       <c r="D9">
-        <v>3.380117617414033</v>
+        <v>3.486352041423892</v>
       </c>
       <c r="E9">
-        <v>6.125992059614477</v>
+        <v>9.309046628936317</v>
       </c>
       <c r="F9">
-        <v>47.49655912726761</v>
+        <v>57.7451227482041</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.8011822639547</v>
+        <v>9.662295882805234</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.88246788152793</v>
+        <v>11.63238140752491</v>
       </c>
       <c r="M9">
-        <v>16.91868408436923</v>
+        <v>22.40794414869566</v>
       </c>
       <c r="N9">
-        <v>15.66015749699992</v>
+        <v>23.69980657159582</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.40385592362915</v>
+        <v>30.23979210309325</v>
       </c>
       <c r="C10">
-        <v>19.2651531770698</v>
+        <v>12.28909187273435</v>
       </c>
       <c r="D10">
-        <v>3.720831729771683</v>
+        <v>3.585286108132635</v>
       </c>
       <c r="E10">
-        <v>6.257508172944977</v>
+        <v>9.334541539041759</v>
       </c>
       <c r="F10">
-        <v>49.96443870535366</v>
+        <v>58.00318329665998</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.744692529681872</v>
+        <v>9.64739309749999</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.018437059417552</v>
+        <v>11.61188460691347</v>
       </c>
       <c r="M10">
-        <v>17.92575966605866</v>
+        <v>22.49367241881287</v>
       </c>
       <c r="N10">
-        <v>15.33735415727539</v>
+        <v>23.61539880506943</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.52298737646964</v>
+        <v>30.46547013018498</v>
       </c>
       <c r="C11">
-        <v>20.0415155366847</v>
+        <v>12.54811432529454</v>
       </c>
       <c r="D11">
-        <v>3.873401340950432</v>
+        <v>3.628982380617649</v>
       </c>
       <c r="E11">
-        <v>6.318619543272986</v>
+        <v>9.345934723957274</v>
       </c>
       <c r="F11">
-        <v>51.11900319566527</v>
+        <v>58.13356501851267</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.719205428480532</v>
+        <v>9.640911753624176</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.084483499417369</v>
+        <v>11.60418633049801</v>
       </c>
       <c r="M11">
-        <v>18.38564014377497</v>
+        <v>22.53737493345056</v>
       </c>
       <c r="N11">
-        <v>15.19652625125527</v>
+        <v>23.5790782899205</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.94378070985925</v>
+        <v>30.55168059710559</v>
       </c>
       <c r="C12">
-        <v>20.33184655471074</v>
+        <v>12.64533743405289</v>
       </c>
       <c r="D12">
-        <v>3.930919768972713</v>
+        <v>3.645335868425309</v>
       </c>
       <c r="E12">
-        <v>6.341996153411188</v>
+        <v>9.350219944383184</v>
       </c>
       <c r="F12">
-        <v>51.56111898395087</v>
+        <v>58.1847900095064</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.709573245971781</v>
+        <v>9.638500029779944</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.110127750314875</v>
+        <v>11.60150466037359</v>
       </c>
       <c r="M12">
-        <v>18.56007089161361</v>
+        <v>22.5545933235548</v>
       </c>
       <c r="N12">
-        <v>15.14413466322687</v>
+        <v>23.56562331700717</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.85328493602576</v>
+        <v>30.53308133786454</v>
       </c>
       <c r="C13">
-        <v>20.2694762814452</v>
+        <v>12.62443859125053</v>
       </c>
       <c r="D13">
-        <v>3.918541923435609</v>
+        <v>3.641822528191019</v>
       </c>
       <c r="E13">
-        <v>6.336950233316066</v>
+        <v>9.349298336576396</v>
       </c>
       <c r="F13">
-        <v>51.46567692497794</v>
+        <v>58.17367568376214</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.711647043606551</v>
+        <v>9.639017545800503</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.104576063132997</v>
+        <v>11.60207182604467</v>
       </c>
       <c r="M13">
-        <v>18.52249053431687</v>
+        <v>22.55085539640985</v>
       </c>
       <c r="N13">
-        <v>15.15537514135533</v>
+        <v>23.56850779343951</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55766506274771</v>
+        <v>30.47254806408126</v>
       </c>
       <c r="C14">
-        <v>20.06547278648371</v>
+        <v>12.55613077130129</v>
       </c>
       <c r="D14">
-        <v>3.878137974698421</v>
+        <v>3.630331694558228</v>
       </c>
       <c r="E14">
-        <v>6.320537720996964</v>
+        <v>9.346287853819515</v>
       </c>
       <c r="F14">
-        <v>51.15527576073974</v>
+        <v>58.13774230465755</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.718412665581039</v>
+        <v>9.640712486804958</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.086580368266902</v>
+        <v>11.60396102998656</v>
       </c>
       <c r="M14">
-        <v>18.39998464741929</v>
+        <v>22.53877813346196</v>
       </c>
       <c r="N14">
-        <v>15.19219671769758</v>
+        <v>23.57796535149244</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37620563806611</v>
+        <v>30.43556542960549</v>
       </c>
       <c r="C15">
-        <v>19.94004741327855</v>
+        <v>12.51417502408237</v>
       </c>
       <c r="D15">
-        <v>3.853358985190508</v>
+        <v>3.623267903843463</v>
       </c>
       <c r="E15">
-        <v>6.310516835491079</v>
+        <v>9.344440060920112</v>
       </c>
       <c r="F15">
-        <v>50.96579647935041</v>
+        <v>58.11597279022862</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.722558958649556</v>
+        <v>9.641756230657188</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.075641039455456</v>
+        <v>11.60514862131341</v>
       </c>
       <c r="M15">
-        <v>18.3249848741144</v>
+        <v>22.53146738133452</v>
       </c>
       <c r="N15">
-        <v>15.21487541380036</v>
+        <v>23.58379729870317</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.33028725449974</v>
+        <v>30.22515241031899</v>
       </c>
       <c r="C16">
-        <v>19.21388701786651</v>
+        <v>12.27204866277466</v>
       </c>
       <c r="D16">
-        <v>3.710819732074108</v>
+        <v>3.58240366644949</v>
       </c>
       <c r="E16">
-        <v>6.253544362239969</v>
+        <v>9.333792875516101</v>
       </c>
       <c r="F16">
-        <v>49.8896521384011</v>
+        <v>57.9949226413108</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.746361492554842</v>
+        <v>9.64782264532338</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.014207682512343</v>
+        <v>11.61242039898441</v>
       </c>
       <c r="M16">
-        <v>17.89574250257847</v>
+        <v>22.49091041469266</v>
       </c>
       <c r="N16">
-        <v>15.34668442954615</v>
+        <v>23.61781424262071</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.68310123262319</v>
+        <v>30.09748298281171</v>
       </c>
       <c r="C17">
-        <v>18.76156664108905</v>
+        <v>12.12207998800824</v>
       </c>
       <c r="D17">
-        <v>3.622816987640741</v>
+        <v>3.556995720616771</v>
       </c>
       <c r="E17">
-        <v>6.218955808906494</v>
+        <v>9.327208979235749</v>
       </c>
       <c r="F17">
-        <v>49.23783957946505</v>
+        <v>57.92397876272241</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.761010020223362</v>
+        <v>9.651620355230165</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.977614845838934</v>
+        <v>11.61729761488003</v>
       </c>
       <c r="M17">
-        <v>17.63287582331235</v>
+        <v>22.46722997937755</v>
       </c>
       <c r="N17">
-        <v>15.42913212971452</v>
+        <v>23.63921460068998</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.30876886712138</v>
+        <v>30.02459202233177</v>
       </c>
       <c r="C18">
-        <v>18.49879727980655</v>
+        <v>12.03532883014726</v>
       </c>
       <c r="D18">
-        <v>3.571965771086075</v>
+        <v>3.542258783062527</v>
       </c>
       <c r="E18">
-        <v>6.199178782667101</v>
+        <v>9.323402823371897</v>
       </c>
       <c r="F18">
-        <v>48.86591321069167</v>
+        <v>57.88439736140336</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.769455998596919</v>
+        <v>9.653832761289614</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.956960215697302</v>
+        <v>11.62025591009101</v>
       </c>
       <c r="M18">
-        <v>17.48184297938272</v>
+        <v>22.45405289460652</v>
       </c>
       <c r="N18">
-        <v>15.47711505275454</v>
+        <v>23.65171900709731</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.18166415568874</v>
+        <v>30.00000741902499</v>
       </c>
       <c r="C19">
-        <v>18.4093721686711</v>
+        <v>12.00587493721658</v>
       </c>
       <c r="D19">
-        <v>3.554705596751361</v>
+        <v>3.537248150674005</v>
       </c>
       <c r="E19">
-        <v>6.192501379458156</v>
+        <v>9.322110805521186</v>
       </c>
       <c r="F19">
-        <v>48.74048900394326</v>
+        <v>57.87120637239654</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.772319502931381</v>
+        <v>9.654586671052586</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.950033477807849</v>
+        <v>11.62128383271306</v>
       </c>
       <c r="M19">
-        <v>17.43073322616996</v>
+        <v>22.44966770212439</v>
       </c>
       <c r="N19">
-        <v>15.49345570382852</v>
+        <v>23.65598635520175</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.75221048241831</v>
+        <v>30.11101810472458</v>
       </c>
       <c r="C20">
-        <v>18.8099847131618</v>
+        <v>12.13809621457039</v>
       </c>
       <c r="D20">
-        <v>3.632208664957194</v>
+        <v>3.559713203364801</v>
       </c>
       <c r="E20">
-        <v>6.222625330480685</v>
+        <v>9.327911838821041</v>
       </c>
       <c r="F20">
-        <v>49.30691586428326</v>
+        <v>57.93140432200774</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.759448610036378</v>
+        <v>9.65121317972447</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.981469374525479</v>
+        <v>11.61676258886745</v>
       </c>
       <c r="M20">
-        <v>17.66084165698702</v>
+        <v>22.46970497511639</v>
       </c>
       <c r="N20">
-        <v>15.42029688257549</v>
+        <v>23.63691626297409</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.6445753145389</v>
+        <v>30.49030832592291</v>
       </c>
       <c r="C21">
-        <v>20.12549037065038</v>
+        <v>12.57621861565175</v>
       </c>
       <c r="D21">
-        <v>3.890011744530509</v>
+        <v>3.633712116859682</v>
       </c>
       <c r="E21">
-        <v>6.325351650163428</v>
+        <v>9.347172893922824</v>
       </c>
       <c r="F21">
-        <v>51.24631183786881</v>
+        <v>58.14824667478292</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.71642501106771</v>
+        <v>9.640213486689371</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.0918486651094</v>
+        <v>11.60339979036247</v>
       </c>
       <c r="M21">
-        <v>18.4359594326092</v>
+        <v>22.54230741830751</v>
       </c>
       <c r="N21">
-        <v>15.18135524792247</v>
+        <v>23.57517932626489</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.86402182662277</v>
+        <v>30.74254161088959</v>
       </c>
       <c r="C22">
-        <v>20.96408003950422</v>
+        <v>12.85748626815439</v>
       </c>
       <c r="D22">
-        <v>4.057060521278501</v>
+        <v>3.680945628575554</v>
       </c>
       <c r="E22">
-        <v>6.393889215206068</v>
+        <v>9.359591438815478</v>
       </c>
       <c r="F22">
-        <v>52.54265442842539</v>
+        <v>58.30075320187787</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.688412555020033</v>
+        <v>9.633272868601731</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.167700968716733</v>
+        <v>11.59602728615274</v>
       </c>
       <c r="M22">
-        <v>18.9442442487824</v>
+        <v>22.59365399215798</v>
       </c>
       <c r="N22">
-        <v>15.03069983114804</v>
+        <v>23.53657249984479</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.21468431939883</v>
+        <v>30.60754548081957</v>
       </c>
       <c r="C23">
-        <v>20.51833819750426</v>
+        <v>12.70786331414567</v>
       </c>
       <c r="D23">
-        <v>3.968000835172798</v>
+        <v>3.655841108120077</v>
       </c>
       <c r="E23">
-        <v>6.357162364621566</v>
+        <v>9.352978857944715</v>
       </c>
       <c r="F23">
-        <v>51.84799841199562</v>
+        <v>58.21837628340446</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.70335764058826</v>
+        <v>9.636954562669553</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.126865838930587</v>
+        <v>11.59983771714622</v>
       </c>
       <c r="M23">
-        <v>18.6727860726084</v>
+        <v>22.56589541208287</v>
       </c>
       <c r="N23">
-        <v>15.11057541921188</v>
+        <v>23.55701825493155</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.72097323056719</v>
+        <v>30.10489728890202</v>
       </c>
       <c r="C24">
-        <v>18.78810340996415</v>
+        <v>12.13085692832549</v>
       </c>
       <c r="D24">
-        <v>3.627963495711632</v>
+        <v>3.558485032611604</v>
       </c>
       <c r="E24">
-        <v>6.220966005835974</v>
+        <v>9.327594141391932</v>
       </c>
       <c r="F24">
-        <v>49.27567774794317</v>
+        <v>57.92804347164299</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.760154446938462</v>
+        <v>9.651397173262541</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.97972555116689</v>
+        <v>11.61700399343748</v>
       </c>
       <c r="M24">
-        <v>17.64819801662221</v>
+        <v>22.46858466749095</v>
       </c>
       <c r="N24">
-        <v>15.4242894882336</v>
+        <v>23.63795471522323</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95141361144227</v>
+        <v>29.58366235797743</v>
       </c>
       <c r="C25">
-        <v>16.82125431785579</v>
+        <v>11.49010924548661</v>
       </c>
       <c r="D25">
-        <v>3.251960691994635</v>
+        <v>3.448792992601394</v>
       </c>
       <c r="E25">
-        <v>6.078405291368029</v>
+        <v>9.299474512422909</v>
       </c>
       <c r="F25">
-        <v>46.61446194368116</v>
+        <v>57.66169323634143</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.822238179494755</v>
+        <v>9.668049792046601</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.835932045192897</v>
+        <v>11.64137281694567</v>
       </c>
       <c r="M25">
-        <v>16.5493823677427</v>
+        <v>22.38058834222004</v>
       </c>
       <c r="N25">
-        <v>15.78397458661625</v>
+        <v>23.73273149448173</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.22024917866318</v>
+        <v>26.8419038123197</v>
       </c>
       <c r="C2">
-        <v>11.00672983195734</v>
+        <v>15.27742454473776</v>
       </c>
       <c r="D2">
-        <v>3.364191789476627</v>
+        <v>2.964373938914842</v>
       </c>
       <c r="E2">
-        <v>9.278120118370197</v>
+        <v>5.975648813916852</v>
       </c>
       <c r="F2">
-        <v>57.5062078401759</v>
+        <v>44.74491872594569</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.681245611534154</v>
+        <v>5.86901283563575</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.66435812607003</v>
+        <v>6.741911288698244</v>
       </c>
       <c r="M2">
-        <v>22.33059044669318</v>
+        <v>15.74635549867214</v>
       </c>
       <c r="N2">
-        <v>23.80895137667823</v>
+        <v>16.06522374863921</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.98779264211914</v>
+        <v>25.3703615079927</v>
       </c>
       <c r="C3">
-        <v>10.67435376955665</v>
+        <v>14.16769389925905</v>
       </c>
       <c r="D3">
-        <v>3.30457038433875</v>
+        <v>2.761655609917096</v>
       </c>
       <c r="E3">
-        <v>9.263235039810688</v>
+        <v>5.906771070416078</v>
       </c>
       <c r="F3">
-        <v>57.42628700465424</v>
+        <v>43.53204268456074</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.69077701673036</v>
+        <v>5.901529490151379</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.68308512607789</v>
+        <v>6.685167623369459</v>
       </c>
       <c r="M3">
-        <v>22.30601294436337</v>
+        <v>15.20711870699526</v>
       </c>
       <c r="N3">
-        <v>23.8646259361642</v>
+        <v>16.26540190763107</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.85223907291062</v>
+        <v>24.4476873985261</v>
       </c>
       <c r="C4">
-        <v>10.46883087925419</v>
+        <v>13.4539550426634</v>
       </c>
       <c r="D4">
-        <v>3.266873852803161</v>
+        <v>2.710334400170288</v>
       </c>
       <c r="E4">
-        <v>9.253889449250906</v>
+        <v>5.864683464613109</v>
       </c>
       <c r="F4">
-        <v>57.38978736585815</v>
+        <v>42.81374710640514</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.696921398371403</v>
+        <v>5.921943008893511</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.69613837047859</v>
+        <v>6.653640648552292</v>
       </c>
       <c r="M4">
-        <v>22.29553293496961</v>
+        <v>14.87912322921877</v>
       </c>
       <c r="N4">
-        <v>23.90079462990975</v>
+        <v>16.39287253228634</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.79885519298293</v>
+        <v>24.06721075364998</v>
       </c>
       <c r="C5">
-        <v>10.38486423289621</v>
+        <v>13.15482820446917</v>
       </c>
       <c r="D5">
-        <v>3.251244784431611</v>
+        <v>2.691919004275133</v>
       </c>
       <c r="E5">
-        <v>9.250028918751992</v>
+        <v>5.847561052928408</v>
       </c>
       <c r="F5">
-        <v>57.37807621702721</v>
+        <v>42.5276633268037</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.699498972866806</v>
+        <v>5.930380489906471</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.70184883001624</v>
+        <v>6.641608672083271</v>
       </c>
       <c r="M5">
-        <v>22.29242433019914</v>
+        <v>14.74635974159048</v>
       </c>
       <c r="N5">
-        <v>23.9160327916494</v>
+        <v>16.44594502111197</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.79010431185187</v>
+        <v>24.0037739695184</v>
       </c>
       <c r="C6">
-        <v>10.37091317956722</v>
+        <v>13.10465517944768</v>
       </c>
       <c r="D6">
-        <v>3.248633628645783</v>
+        <v>2.688908408665552</v>
       </c>
       <c r="E6">
-        <v>9.249384723398993</v>
+        <v>5.844719001473941</v>
       </c>
       <c r="F6">
-        <v>57.37632260536536</v>
+        <v>42.48055934690637</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.699931435075955</v>
+        <v>5.931788873316401</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.7028206774359</v>
+        <v>6.639659512270203</v>
       </c>
       <c r="M6">
-        <v>22.291978399294</v>
+        <v>14.72437241063824</v>
       </c>
       <c r="N6">
-        <v>23.91859322781201</v>
+        <v>16.45482525126894</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.85151154278624</v>
+        <v>24.44257378347358</v>
       </c>
       <c r="C7">
-        <v>10.46769914173189</v>
+        <v>13.44995457427239</v>
       </c>
       <c r="D7">
-        <v>3.26666414788081</v>
+        <v>2.710082850033629</v>
       </c>
       <c r="E7">
-        <v>9.253837596224011</v>
+        <v>5.864452458054517</v>
       </c>
       <c r="F7">
-        <v>57.38961661962462</v>
+        <v>42.80986205866586</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.696955861751029</v>
+        <v>5.922056310900838</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.69621379973292</v>
+        <v>6.653475102361112</v>
       </c>
       <c r="M7">
-        <v>22.29548630309991</v>
+        <v>14.87732893358863</v>
       </c>
       <c r="N7">
-        <v>23.90099811602124</v>
+        <v>16.39358374538592</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.13864049072113</v>
+        <v>26.33865937917927</v>
       </c>
       <c r="C8">
-        <v>10.89251240622492</v>
+        <v>14.90141841101027</v>
       </c>
       <c r="D8">
-        <v>3.343864014672215</v>
+        <v>2.895314866897735</v>
       </c>
       <c r="E8">
-        <v>9.27303033332274</v>
+        <v>5.95184316928418</v>
       </c>
       <c r="F8">
-        <v>57.47604333462403</v>
+        <v>44.32122307781673</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.684471572823725</v>
+        <v>5.88013538652825</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.67049262073112</v>
+        <v>6.721647437531884</v>
       </c>
       <c r="M8">
-        <v>22.32116101448043</v>
+        <v>15.55984935929438</v>
       </c>
       <c r="N8">
-        <v>23.8277362199942</v>
+        <v>16.13328554328527</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.75623174826032</v>
+        <v>29.89531747368755</v>
       </c>
       <c r="C9">
-        <v>11.70804933666533</v>
+        <v>17.49808904765641</v>
       </c>
       <c r="D9">
-        <v>3.486352041423892</v>
+        <v>3.380117617414125</v>
       </c>
       <c r="E9">
-        <v>9.309046628936317</v>
+        <v>6.125992059614744</v>
       </c>
       <c r="F9">
-        <v>57.7451227482041</v>
+        <v>47.49655912726772</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.662295882805234</v>
+        <v>5.801182263954733</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.63238140752491</v>
+        <v>6.882467881527969</v>
       </c>
       <c r="M9">
-        <v>22.40794414869566</v>
+        <v>16.91868408436929</v>
       </c>
       <c r="N9">
-        <v>23.69980657159582</v>
+        <v>15.66015749700004</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.23979210309325</v>
+        <v>32.40385592362922</v>
       </c>
       <c r="C10">
-        <v>12.28909187273435</v>
+        <v>19.26515317706994</v>
       </c>
       <c r="D10">
-        <v>3.585286108132635</v>
+        <v>3.720831729771822</v>
       </c>
       <c r="E10">
-        <v>9.334541539041759</v>
+        <v>6.257508172945372</v>
       </c>
       <c r="F10">
-        <v>58.00318329665998</v>
+        <v>49.96443870535359</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.64739309749999</v>
+        <v>5.744692529682108</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.61188460691347</v>
+        <v>7.018437059417663</v>
       </c>
       <c r="M10">
-        <v>22.49367241881287</v>
+        <v>17.92575966605866</v>
       </c>
       <c r="N10">
-        <v>23.61539880506943</v>
+        <v>15.33735415727528</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.46547013018498</v>
+        <v>33.52298737646962</v>
       </c>
       <c r="C11">
-        <v>12.54811432529454</v>
+        <v>20.04151553668457</v>
       </c>
       <c r="D11">
-        <v>3.628982380617649</v>
+        <v>3.873401340950303</v>
       </c>
       <c r="E11">
-        <v>9.345934723957274</v>
+        <v>6.318619543272716</v>
       </c>
       <c r="F11">
-        <v>58.13356501851267</v>
+        <v>51.11900319566517</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.640911753624176</v>
+        <v>5.719205428480468</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.60418633049801</v>
+        <v>7.084483499417352</v>
       </c>
       <c r="M11">
-        <v>22.53737493345056</v>
+        <v>18.38564014377492</v>
       </c>
       <c r="N11">
-        <v>23.5790782899205</v>
+        <v>15.19652625125521</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.55168059710559</v>
+        <v>33.94378070985925</v>
       </c>
       <c r="C12">
-        <v>12.64533743405289</v>
+        <v>20.33184655471068</v>
       </c>
       <c r="D12">
-        <v>3.645335868425309</v>
+        <v>3.93091976897268</v>
       </c>
       <c r="E12">
-        <v>9.350219944383184</v>
+        <v>6.341996153411119</v>
       </c>
       <c r="F12">
-        <v>58.1847900095064</v>
+        <v>51.56111898395083</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.638500029779944</v>
+        <v>5.709573245971749</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.60150466037359</v>
+        <v>7.110127750314844</v>
       </c>
       <c r="M12">
-        <v>22.5545933235548</v>
+        <v>18.56007089161361</v>
       </c>
       <c r="N12">
-        <v>23.56562331700717</v>
+        <v>15.14413466322689</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.53308133786454</v>
+        <v>33.85328493602577</v>
       </c>
       <c r="C13">
-        <v>12.62443859125053</v>
+        <v>20.26947628144513</v>
       </c>
       <c r="D13">
-        <v>3.641822528191019</v>
+        <v>3.918541923435609</v>
       </c>
       <c r="E13">
-        <v>9.349298336576396</v>
+        <v>6.336950233315933</v>
       </c>
       <c r="F13">
-        <v>58.17367568376214</v>
+        <v>51.46567692497808</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.639017545800503</v>
+        <v>5.711647043606447</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.60207182604467</v>
+        <v>7.104576063132963</v>
       </c>
       <c r="M13">
-        <v>22.55085539640985</v>
+        <v>18.52249053431688</v>
       </c>
       <c r="N13">
-        <v>23.56850779343951</v>
+        <v>15.1553751413554</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.47254806408126</v>
+        <v>33.55766506274769</v>
       </c>
       <c r="C14">
-        <v>12.55613077130129</v>
+        <v>20.06547278648348</v>
       </c>
       <c r="D14">
-        <v>3.630331694558228</v>
+        <v>3.878137974698317</v>
       </c>
       <c r="E14">
-        <v>9.346287853819515</v>
+        <v>6.320537720996895</v>
       </c>
       <c r="F14">
-        <v>58.13774230465755</v>
+        <v>51.15527576073976</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.640712486804958</v>
+        <v>5.718412665581075</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.60396102998656</v>
+        <v>7.086580368266987</v>
       </c>
       <c r="M14">
-        <v>22.53877813346196</v>
+        <v>18.39998464741932</v>
       </c>
       <c r="N14">
-        <v>23.57796535149244</v>
+        <v>15.19219671769769</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.43556542960549</v>
+        <v>33.37620563806611</v>
       </c>
       <c r="C15">
-        <v>12.51417502408237</v>
+        <v>19.94004741327863</v>
       </c>
       <c r="D15">
-        <v>3.623267903843463</v>
+        <v>3.853358985190416</v>
       </c>
       <c r="E15">
-        <v>9.344440060920112</v>
+        <v>6.310516835491144</v>
       </c>
       <c r="F15">
-        <v>58.11597279022862</v>
+        <v>50.96579647935051</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.641756230657188</v>
+        <v>5.722558958649623</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.60514862131341</v>
+        <v>7.075641039455453</v>
       </c>
       <c r="M15">
-        <v>22.53146738133452</v>
+        <v>18.32498487411443</v>
       </c>
       <c r="N15">
-        <v>23.58379729870317</v>
+        <v>15.21487541380045</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.22515241031899</v>
+        <v>32.33028725449974</v>
       </c>
       <c r="C16">
-        <v>12.27204866277466</v>
+        <v>19.2138870178665</v>
       </c>
       <c r="D16">
-        <v>3.58240366644949</v>
+        <v>3.710819732074201</v>
       </c>
       <c r="E16">
-        <v>9.333792875516101</v>
+        <v>6.25354436223991</v>
       </c>
       <c r="F16">
-        <v>57.9949226413108</v>
+        <v>49.8896521384012</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.64782264532338</v>
+        <v>5.746361492554708</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.61242039898441</v>
+        <v>7.014207682512279</v>
       </c>
       <c r="M16">
-        <v>22.49091041469266</v>
+        <v>17.89574250257847</v>
       </c>
       <c r="N16">
-        <v>23.61781424262071</v>
+        <v>15.34668442954615</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.09748298281171</v>
+        <v>31.68310123262315</v>
       </c>
       <c r="C17">
-        <v>12.12207998800824</v>
+        <v>18.76156664108892</v>
       </c>
       <c r="D17">
-        <v>3.556995720616771</v>
+        <v>3.622816987640626</v>
       </c>
       <c r="E17">
-        <v>9.327208979235749</v>
+        <v>6.218955808906498</v>
       </c>
       <c r="F17">
-        <v>57.92397876272241</v>
+        <v>49.23783957946505</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.651620355230165</v>
+        <v>5.761010020223361</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.61729761488003</v>
+        <v>6.977614845838946</v>
       </c>
       <c r="M17">
-        <v>22.46722997937755</v>
+        <v>17.63287582331236</v>
       </c>
       <c r="N17">
-        <v>23.63921460068998</v>
+        <v>15.42913212971463</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.02459202233177</v>
+        <v>31.3087688671214</v>
       </c>
       <c r="C18">
-        <v>12.03532883014726</v>
+        <v>18.49879727980662</v>
       </c>
       <c r="D18">
-        <v>3.542258783062527</v>
+        <v>3.571965771086112</v>
       </c>
       <c r="E18">
-        <v>9.323402823371897</v>
+        <v>6.199178782667173</v>
       </c>
       <c r="F18">
-        <v>57.88439736140336</v>
+        <v>48.86591321069174</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.653832761289614</v>
+        <v>5.769455998596952</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.62025591009101</v>
+        <v>6.956960215697351</v>
       </c>
       <c r="M18">
-        <v>22.45405289460652</v>
+        <v>17.48184297938274</v>
       </c>
       <c r="N18">
-        <v>23.65171900709731</v>
+        <v>15.47711505275456</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.00000741902499</v>
+        <v>31.18166415568871</v>
       </c>
       <c r="C19">
-        <v>12.00587493721658</v>
+        <v>18.40937216867103</v>
       </c>
       <c r="D19">
-        <v>3.537248150674005</v>
+        <v>3.554705596751199</v>
       </c>
       <c r="E19">
-        <v>9.322110805521186</v>
+        <v>6.192501379457956</v>
       </c>
       <c r="F19">
-        <v>57.87120637239654</v>
+        <v>48.74048900394327</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.654586671052586</v>
+        <v>5.772319502931313</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.62128383271306</v>
+        <v>6.950033477807755</v>
       </c>
       <c r="M19">
-        <v>22.44966770212439</v>
+        <v>17.43073322616995</v>
       </c>
       <c r="N19">
-        <v>23.65598635520175</v>
+        <v>15.49345570382862</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.11101810472458</v>
+        <v>31.75221048241832</v>
       </c>
       <c r="C20">
-        <v>12.13809621457039</v>
+        <v>18.80998471316188</v>
       </c>
       <c r="D20">
-        <v>3.559713203364801</v>
+        <v>3.632208664957148</v>
       </c>
       <c r="E20">
-        <v>9.327911838821041</v>
+        <v>6.222625330480688</v>
       </c>
       <c r="F20">
-        <v>57.93140432200774</v>
+        <v>49.30691586428308</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.65121317972447</v>
+        <v>5.759448610036444</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.61676258886745</v>
+        <v>6.981469374525435</v>
       </c>
       <c r="M20">
-        <v>22.46970497511639</v>
+        <v>17.66084165698697</v>
       </c>
       <c r="N20">
-        <v>23.63691626297409</v>
+        <v>15.42029688257538</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.49030832592291</v>
+        <v>33.64457531453894</v>
       </c>
       <c r="C21">
-        <v>12.57621861565175</v>
+        <v>20.1254903706504</v>
       </c>
       <c r="D21">
-        <v>3.633712116859682</v>
+        <v>3.890011744530496</v>
       </c>
       <c r="E21">
-        <v>9.347172893922824</v>
+        <v>6.325351650163628</v>
       </c>
       <c r="F21">
-        <v>58.14824667478292</v>
+        <v>51.24631183786887</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.640213486689371</v>
+        <v>5.716425011067876</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.60339979036247</v>
+        <v>7.091848665109484</v>
       </c>
       <c r="M21">
-        <v>22.54230741830751</v>
+        <v>18.43595943260924</v>
       </c>
       <c r="N21">
-        <v>23.57517932626489</v>
+        <v>15.18135524792247</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.74254161088959</v>
+        <v>34.86402182662282</v>
       </c>
       <c r="C22">
-        <v>12.85748626815439</v>
+        <v>20.96408003950448</v>
       </c>
       <c r="D22">
-        <v>3.680945628575554</v>
+        <v>4.057060521278584</v>
       </c>
       <c r="E22">
-        <v>9.359591438815478</v>
+        <v>6.393889215206137</v>
       </c>
       <c r="F22">
-        <v>58.30075320187787</v>
+        <v>52.54265442842545</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.633272868601731</v>
+        <v>5.688412555020102</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.59602728615274</v>
+        <v>7.16770096871665</v>
       </c>
       <c r="M22">
-        <v>22.59365399215798</v>
+        <v>18.94424424878239</v>
       </c>
       <c r="N22">
-        <v>23.53657249984479</v>
+        <v>15.03069983114805</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.60754548081957</v>
+        <v>34.21468431939883</v>
       </c>
       <c r="C23">
-        <v>12.70786331414567</v>
+        <v>20.51833819750413</v>
       </c>
       <c r="D23">
-        <v>3.655841108120077</v>
+        <v>3.968000835172603</v>
       </c>
       <c r="E23">
-        <v>9.352978857944715</v>
+        <v>6.357162364621437</v>
       </c>
       <c r="F23">
-        <v>58.21837628340446</v>
+        <v>51.84799841199565</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.636954562669553</v>
+        <v>5.70335764058826</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.59983771714622</v>
+        <v>7.126865838930528</v>
       </c>
       <c r="M23">
-        <v>22.56589541208287</v>
+        <v>18.6727860726084</v>
       </c>
       <c r="N23">
-        <v>23.55701825493155</v>
+        <v>15.11057541921194</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.10489728890202</v>
+        <v>31.72097323056715</v>
       </c>
       <c r="C24">
-        <v>12.13085692832549</v>
+        <v>18.78810340996417</v>
       </c>
       <c r="D24">
-        <v>3.558485032611604</v>
+        <v>3.627963495711643</v>
       </c>
       <c r="E24">
-        <v>9.327594141391932</v>
+        <v>6.220966005836035</v>
       </c>
       <c r="F24">
-        <v>57.92804347164299</v>
+        <v>49.27567774794293</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.651397173262541</v>
+        <v>5.760154446938494</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.61700399343748</v>
+        <v>6.979725551166887</v>
       </c>
       <c r="M24">
-        <v>22.46858466749095</v>
+        <v>17.64819801662217</v>
       </c>
       <c r="N24">
-        <v>23.63795471522323</v>
+        <v>15.4242894882335</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.58366235797743</v>
+        <v>28.95141361144227</v>
       </c>
       <c r="C25">
-        <v>11.49010924548661</v>
+        <v>16.82125431785587</v>
       </c>
       <c r="D25">
-        <v>3.448792992601394</v>
+        <v>3.251960691994636</v>
       </c>
       <c r="E25">
-        <v>9.299474512422909</v>
+        <v>6.078405291368031</v>
       </c>
       <c r="F25">
-        <v>57.66169323634143</v>
+        <v>46.6144619436812</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.668049792046601</v>
+        <v>5.822238179494789</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.64137281694567</v>
+        <v>6.83593204519291</v>
       </c>
       <c r="M25">
-        <v>22.38058834222004</v>
+        <v>16.54938236774271</v>
       </c>
       <c r="N25">
-        <v>23.73273149448173</v>
+        <v>15.78397458661631</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.8419038123197</v>
+        <v>18.87912131635342</v>
       </c>
       <c r="C2">
-        <v>15.27742454473776</v>
+        <v>11.80244280471696</v>
       </c>
       <c r="D2">
-        <v>2.964373938914842</v>
+        <v>4.897577938720155</v>
       </c>
       <c r="E2">
-        <v>5.975648813916852</v>
+        <v>7.725845851160891</v>
       </c>
       <c r="F2">
-        <v>44.74491872594569</v>
+        <v>23.7286544282437</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.592202550707831</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.11668969466529</v>
       </c>
       <c r="J2">
-        <v>5.86901283563575</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.25145668702497</v>
       </c>
       <c r="L2">
-        <v>6.741911288698244</v>
+        <v>6.156506813151958</v>
       </c>
       <c r="M2">
-        <v>15.74635549867214</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.06522374863921</v>
+        <v>6.969051939861437</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.39110928684892</v>
+      </c>
+      <c r="P2">
+        <v>13.06279527839572</v>
+      </c>
+      <c r="Q2">
+        <v>17.71513017864063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.3703615079927</v>
+        <v>17.68829986949543</v>
       </c>
       <c r="C3">
-        <v>14.16769389925905</v>
+        <v>11.18754845878365</v>
       </c>
       <c r="D3">
-        <v>2.761655609917096</v>
+        <v>4.822682759158839</v>
       </c>
       <c r="E3">
-        <v>5.906771070416078</v>
+        <v>7.665496474649913</v>
       </c>
       <c r="F3">
-        <v>43.53204268456074</v>
+        <v>23.34817019108922</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.792938589597388</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.274150439797424</v>
       </c>
       <c r="J3">
-        <v>5.901529490151379</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.27331480518385</v>
       </c>
       <c r="L3">
-        <v>6.685167623369459</v>
+        <v>6.116754653400312</v>
       </c>
       <c r="M3">
-        <v>15.20711870699526</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.26540190763107</v>
+        <v>6.811161511605953</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.84913075132252</v>
+      </c>
+      <c r="P3">
+        <v>13.16392305771758</v>
+      </c>
+      <c r="Q3">
+        <v>17.51651313701618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.4476873985261</v>
+        <v>16.91324098312858</v>
       </c>
       <c r="C4">
-        <v>13.4539550426634</v>
+        <v>10.79389007995241</v>
       </c>
       <c r="D4">
-        <v>2.710334400170288</v>
+        <v>4.776837268684861</v>
       </c>
       <c r="E4">
-        <v>5.864683464613109</v>
+        <v>7.627311876392878</v>
       </c>
       <c r="F4">
-        <v>42.81374710640514</v>
+        <v>23.11955036739757</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.920748796833637</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.375185587668289</v>
       </c>
       <c r="J4">
-        <v>5.921943008893511</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.2911688744278</v>
       </c>
       <c r="L4">
-        <v>6.653640648552292</v>
+        <v>6.091359699674459</v>
       </c>
       <c r="M4">
-        <v>14.87912322921877</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.39287253228634</v>
+        <v>6.713103842037323</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.50391757744512</v>
+      </c>
+      <c r="P4">
+        <v>13.2282771663149</v>
+      </c>
+      <c r="Q4">
+        <v>17.39974465471952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.06721075364998</v>
+        <v>16.58141618904198</v>
       </c>
       <c r="C5">
-        <v>13.15482820446917</v>
+        <v>10.63587591419926</v>
       </c>
       <c r="D5">
-        <v>2.691919004275133</v>
+        <v>4.758663532682786</v>
       </c>
       <c r="E5">
-        <v>5.847561052928408</v>
+        <v>7.611029944841717</v>
       </c>
       <c r="F5">
-        <v>42.5276633268037</v>
+        <v>23.02107786648169</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.974309743917481</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.420147375652308</v>
       </c>
       <c r="J5">
-        <v>5.930380489906471</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.29487739956524</v>
       </c>
       <c r="L5">
-        <v>6.641608672083271</v>
+        <v>6.080598899672804</v>
       </c>
       <c r="M5">
-        <v>14.74635974159048</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.44594502111197</v>
+        <v>6.674036983140651</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.35949094154351</v>
+      </c>
+      <c r="P5">
+        <v>13.25547665369329</v>
+      </c>
+      <c r="Q5">
+        <v>17.34839911121398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.0037739695184</v>
+        <v>16.51953319095111</v>
       </c>
       <c r="C6">
-        <v>13.10465517944768</v>
+        <v>10.61721211332018</v>
       </c>
       <c r="D6">
-        <v>2.688908408665552</v>
+        <v>4.756213829842255</v>
       </c>
       <c r="E6">
-        <v>5.844719001473941</v>
+        <v>7.607782460181281</v>
       </c>
       <c r="F6">
-        <v>42.48055934690637</v>
+        <v>22.99669189841903</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.983659830400697</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.431127991866641</v>
       </c>
       <c r="J6">
-        <v>5.931788873316401</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.28987148519974</v>
       </c>
       <c r="L6">
-        <v>6.639659512270203</v>
+        <v>6.078602247243573</v>
       </c>
       <c r="M6">
-        <v>14.72437241063824</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.45482525126894</v>
+        <v>6.668927588135178</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.33437450335179</v>
+      </c>
+      <c r="P6">
+        <v>13.26053521354048</v>
+      </c>
+      <c r="Q6">
+        <v>17.333744652144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.44257378347358</v>
+        <v>16.89247085221848</v>
       </c>
       <c r="C7">
-        <v>13.44995457427239</v>
+        <v>10.81274089900481</v>
       </c>
       <c r="D7">
-        <v>2.710082850033629</v>
+        <v>4.778127153307317</v>
       </c>
       <c r="E7">
-        <v>5.864452458054517</v>
+        <v>7.625675437696472</v>
       </c>
       <c r="F7">
-        <v>42.80986205866586</v>
+        <v>23.09617705889336</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.922501736442575</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.384916773897594</v>
       </c>
       <c r="J7">
-        <v>5.922056310900838</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.27570121758819</v>
       </c>
       <c r="L7">
-        <v>6.653475102361112</v>
+        <v>6.09070030867184</v>
       </c>
       <c r="M7">
-        <v>14.87732893358863</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.39358374538592</v>
+        <v>6.716349959135556</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.49939280183744</v>
+      </c>
+      <c r="P7">
+        <v>13.23009625107187</v>
+      </c>
+      <c r="Q7">
+        <v>17.38216347912439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.33865937917927</v>
+        <v>18.45765133299725</v>
       </c>
       <c r="C8">
-        <v>14.90141841101027</v>
+        <v>11.61995320338119</v>
       </c>
       <c r="D8">
-        <v>2.895314866897735</v>
+        <v>4.873730744945958</v>
       </c>
       <c r="E8">
-        <v>5.95184316928418</v>
+        <v>7.703472010981304</v>
       </c>
       <c r="F8">
-        <v>44.32122307781673</v>
+        <v>23.56793583280307</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.661770866674144</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.181774414568458</v>
       </c>
       <c r="J8">
-        <v>5.88013538652825</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.23762478739721</v>
       </c>
       <c r="L8">
-        <v>6.721647437531884</v>
+        <v>6.14238760747301</v>
       </c>
       <c r="M8">
-        <v>15.55984935929438</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>16.13328554328527</v>
+        <v>6.919730232881902</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.20363765942763</v>
+      </c>
+      <c r="P8">
+        <v>13.09941109263345</v>
+      </c>
+      <c r="Q8">
+        <v>17.62360057446777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.89531747368755</v>
+        <v>21.20326387743598</v>
       </c>
       <c r="C9">
-        <v>17.49808904765641</v>
+        <v>13.03817671473065</v>
       </c>
       <c r="D9">
-        <v>3.380117617414125</v>
+        <v>5.059105444088938</v>
       </c>
       <c r="E9">
-        <v>6.125992059614744</v>
+        <v>7.849768734996042</v>
       </c>
       <c r="F9">
-        <v>47.49655912726772</v>
+        <v>24.56788209534887</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.184230692747928</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.802539376502741</v>
       </c>
       <c r="J9">
-        <v>5.801182263954733</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.22713636750847</v>
       </c>
       <c r="L9">
-        <v>6.882467881527969</v>
+        <v>6.236912561504352</v>
       </c>
       <c r="M9">
-        <v>16.91868408436929</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.66015749700004</v>
+        <v>7.301707045317618</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.48430961125424</v>
+      </c>
+      <c r="P9">
+        <v>12.85819531687482</v>
+      </c>
+      <c r="Q9">
+        <v>18.16720577518756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.40385592362922</v>
+        <v>22.96028936671767</v>
       </c>
       <c r="C10">
-        <v>19.26515317706994</v>
+        <v>14.02707417443663</v>
       </c>
       <c r="D10">
-        <v>3.720831729771822</v>
+        <v>5.172089429229244</v>
       </c>
       <c r="E10">
-        <v>6.257508172945372</v>
+        <v>7.926990138472455</v>
       </c>
       <c r="F10">
-        <v>49.96443870535359</v>
+        <v>25.188177927217</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.883598760628961</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.555231240674844</v>
       </c>
       <c r="J10">
-        <v>5.744692529682108</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.17661489673579</v>
       </c>
       <c r="L10">
-        <v>7.018437059417663</v>
+        <v>6.302723463378268</v>
       </c>
       <c r="M10">
-        <v>17.92575966605866</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>15.33735415727528</v>
+        <v>7.510936506760254</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.28897332543754</v>
+      </c>
+      <c r="P10">
+        <v>12.70434757423035</v>
+      </c>
+      <c r="Q10">
+        <v>18.50622352015588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.52298737646962</v>
+        <v>23.35532706678081</v>
       </c>
       <c r="C11">
-        <v>20.04151553668457</v>
+        <v>14.65802418298076</v>
       </c>
       <c r="D11">
-        <v>3.873401340950303</v>
+        <v>5.024156576822835</v>
       </c>
       <c r="E11">
-        <v>6.318619543272716</v>
+        <v>7.814756059081141</v>
       </c>
       <c r="F11">
-        <v>51.11900319566517</v>
+        <v>24.38192234876378</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.837646990788384</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.506113810331795</v>
       </c>
       <c r="J11">
-        <v>5.719205428480468</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.6218898313205</v>
       </c>
       <c r="L11">
-        <v>7.084483499417352</v>
+        <v>6.376615913776278</v>
       </c>
       <c r="M11">
-        <v>18.38564014377492</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15.19652625125521</v>
+        <v>7.060843721116641</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.07748236409239</v>
+      </c>
+      <c r="P11">
+        <v>12.7499129964342</v>
+      </c>
+      <c r="Q11">
+        <v>17.97719074117441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.94378070985925</v>
+        <v>23.34699429950768</v>
       </c>
       <c r="C12">
-        <v>20.33184655471068</v>
+        <v>14.96500423141229</v>
       </c>
       <c r="D12">
-        <v>3.93091976897268</v>
+        <v>4.875778382153812</v>
       </c>
       <c r="E12">
-        <v>6.341996153411119</v>
+        <v>7.80131923574244</v>
       </c>
       <c r="F12">
-        <v>51.56111898395083</v>
+        <v>23.58532375548173</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.198545872858041</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.508927252084408</v>
       </c>
       <c r="J12">
-        <v>5.709573245971749</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.18756965361658</v>
       </c>
       <c r="L12">
-        <v>7.110127750314844</v>
+        <v>6.473531622903102</v>
       </c>
       <c r="M12">
-        <v>18.56007089161361</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>15.14413466322689</v>
+        <v>6.646989203150626</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.72766602149615</v>
+      </c>
+      <c r="P12">
+        <v>12.83273979523514</v>
+      </c>
+      <c r="Q12">
+        <v>17.47186979453619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.85328493602577</v>
+        <v>23.00878453584756</v>
       </c>
       <c r="C13">
-        <v>20.26947628144513</v>
+        <v>15.07539244900527</v>
       </c>
       <c r="D13">
-        <v>3.918541923435609</v>
+        <v>4.719696086743307</v>
       </c>
       <c r="E13">
-        <v>6.336950233315933</v>
+        <v>7.858064182234746</v>
       </c>
       <c r="F13">
-        <v>51.46567692497808</v>
+        <v>22.70658578289283</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.61467683915128</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.528870975885683</v>
       </c>
       <c r="J13">
-        <v>5.711647043606447</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.79719607956395</v>
       </c>
       <c r="L13">
-        <v>7.104576063132963</v>
+        <v>6.589053030680709</v>
       </c>
       <c r="M13">
-        <v>18.52249053431688</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>15.1553751413554</v>
+        <v>6.241715593516801</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.23845868313909</v>
+      </c>
+      <c r="P13">
+        <v>12.94731239057784</v>
+      </c>
+      <c r="Q13">
+        <v>16.92422313690098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55766506274769</v>
+        <v>22.61393858203186</v>
       </c>
       <c r="C14">
-        <v>20.06547278648348</v>
+        <v>15.07047668142189</v>
       </c>
       <c r="D14">
-        <v>3.878137974698317</v>
+        <v>4.60822060754753</v>
       </c>
       <c r="E14">
-        <v>6.320537720996895</v>
+        <v>7.939671300188819</v>
       </c>
       <c r="F14">
-        <v>51.15527576073976</v>
+        <v>22.04688050848453</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.621325232765144</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.575978138573299</v>
       </c>
       <c r="J14">
-        <v>5.718412665581075</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.54359749138476</v>
       </c>
       <c r="L14">
-        <v>7.086580368266987</v>
+        <v>6.682239551711473</v>
       </c>
       <c r="M14">
-        <v>18.39998464741932</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>15.19219671769769</v>
+        <v>5.968573216197284</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.82669575760567</v>
+      </c>
+      <c r="P14">
+        <v>13.04265885419111</v>
+      </c>
+      <c r="Q14">
+        <v>16.51687327262778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37620563806611</v>
+        <v>22.44085614034276</v>
       </c>
       <c r="C15">
-        <v>19.94004741327863</v>
+        <v>15.03390997662048</v>
       </c>
       <c r="D15">
-        <v>3.853358985190416</v>
+        <v>4.579607610516963</v>
       </c>
       <c r="E15">
-        <v>6.310516835491144</v>
+        <v>7.961293805413677</v>
       </c>
       <c r="F15">
-        <v>50.96579647935051</v>
+        <v>21.86351921777459</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.856349674217005</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.602138352750526</v>
       </c>
       <c r="J15">
-        <v>5.722558958649623</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.48706623052911</v>
       </c>
       <c r="L15">
-        <v>7.075641039455453</v>
+        <v>6.70272637827415</v>
       </c>
       <c r="M15">
-        <v>18.32498487411443</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.21487541380045</v>
+        <v>5.903106587669121</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.69564536003139</v>
+      </c>
+      <c r="P15">
+        <v>13.07152031437187</v>
+      </c>
+      <c r="Q15">
+        <v>16.40456919156637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.33028725449974</v>
+        <v>21.75709906247221</v>
       </c>
       <c r="C16">
-        <v>19.2138870178665</v>
+        <v>14.62495355149497</v>
       </c>
       <c r="D16">
-        <v>3.710819732074201</v>
+        <v>4.561941167504317</v>
       </c>
       <c r="E16">
-        <v>6.25354436223991</v>
+        <v>7.909965433627768</v>
       </c>
       <c r="F16">
-        <v>49.8896521384012</v>
+        <v>21.74218259118144</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.662864451239575</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.706506918730778</v>
       </c>
       <c r="J16">
-        <v>5.746361492554708</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.58155421951509</v>
       </c>
       <c r="L16">
-        <v>7.014207682512279</v>
+        <v>6.646436478318851</v>
       </c>
       <c r="M16">
-        <v>17.89574250257847</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>15.34668442954615</v>
+        <v>5.891242368707931</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.43118970618568</v>
+      </c>
+      <c r="P16">
+        <v>13.10233108737789</v>
+      </c>
+      <c r="Q16">
+        <v>16.34902991747486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.68310123262315</v>
+        <v>21.44163962650543</v>
       </c>
       <c r="C17">
-        <v>18.76156664108892</v>
+        <v>14.30811382361106</v>
       </c>
       <c r="D17">
-        <v>3.622816987640626</v>
+        <v>4.607674407766466</v>
       </c>
       <c r="E17">
-        <v>6.218955808906498</v>
+        <v>7.81968536358884</v>
       </c>
       <c r="F17">
-        <v>49.23783957946505</v>
+        <v>22.00533672330891</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.950623521593945</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.762401561809599</v>
       </c>
       <c r="J17">
-        <v>5.761010020223361</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.78661952277623</v>
       </c>
       <c r="L17">
-        <v>6.977614845838946</v>
+        <v>6.550318262337253</v>
       </c>
       <c r="M17">
-        <v>17.63287582331236</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>15.42913212971463</v>
+        <v>6.025296415109737</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.45336573775111</v>
+      </c>
+      <c r="P17">
+        <v>13.07703575689985</v>
+      </c>
+      <c r="Q17">
+        <v>16.52592236844668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.3087688671214</v>
+        <v>21.42827073884871</v>
       </c>
       <c r="C18">
-        <v>18.49879727980662</v>
+        <v>14.0246242976172</v>
       </c>
       <c r="D18">
-        <v>3.571965771086112</v>
+        <v>4.714919828841522</v>
       </c>
       <c r="E18">
-        <v>6.199178782667173</v>
+        <v>7.731103700807111</v>
       </c>
       <c r="F18">
-        <v>48.86591321069174</v>
+        <v>22.64098949804065</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.743582351729756</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.770433173309159</v>
       </c>
       <c r="J18">
-        <v>5.769455998596952</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.12401133947428</v>
       </c>
       <c r="L18">
-        <v>6.956960215697351</v>
+        <v>6.429125176475144</v>
       </c>
       <c r="M18">
-        <v>17.48184297938274</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>15.47711505275456</v>
+        <v>6.314216393819497</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.72720754974646</v>
+      </c>
+      <c r="P18">
+        <v>13.00386273056004</v>
+      </c>
+      <c r="Q18">
+        <v>16.93171267462255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.18166415568871</v>
+        <v>21.63316782992378</v>
       </c>
       <c r="C19">
-        <v>18.40937216867103</v>
+        <v>13.82771649632007</v>
       </c>
       <c r="D19">
-        <v>3.554705596751199</v>
+        <v>4.870028033717477</v>
       </c>
       <c r="E19">
-        <v>6.192501379457956</v>
+        <v>7.718588934806681</v>
       </c>
       <c r="F19">
-        <v>48.74048900394327</v>
+        <v>23.48927666138556</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.344204538722042</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.757865898533694</v>
       </c>
       <c r="J19">
-        <v>5.772319502931313</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.52581062961408</v>
       </c>
       <c r="L19">
-        <v>6.950033477807755</v>
+        <v>6.329168724892218</v>
       </c>
       <c r="M19">
-        <v>17.43073322616995</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>15.49345570382862</v>
+        <v>6.732044487339698</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.17284524399289</v>
+      </c>
+      <c r="P19">
+        <v>12.91211888227856</v>
+      </c>
+      <c r="Q19">
+        <v>17.46091381515839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.75221048241832</v>
+        <v>22.47157688544391</v>
       </c>
       <c r="C20">
-        <v>18.80998471316188</v>
+        <v>13.82756054069084</v>
       </c>
       <c r="D20">
-        <v>3.632208664957148</v>
+        <v>5.145864387664938</v>
       </c>
       <c r="E20">
-        <v>6.222625330480688</v>
+        <v>7.902014498862228</v>
       </c>
       <c r="F20">
-        <v>49.30691586428308</v>
+        <v>24.95562472295647</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.963162654070072</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.6515256493407</v>
       </c>
       <c r="J20">
-        <v>5.759448610036444</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.13832284520019</v>
       </c>
       <c r="L20">
-        <v>6.981469374525435</v>
+        <v>6.284598054787272</v>
       </c>
       <c r="M20">
-        <v>17.66084165698697</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>15.42029688257538</v>
+        <v>7.46417716882705</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.07249019927282</v>
+      </c>
+      <c r="P20">
+        <v>12.75113314608009</v>
+      </c>
+      <c r="Q20">
+        <v>18.36296878482636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.64457531453894</v>
+        <v>23.82449038469283</v>
       </c>
       <c r="C21">
-        <v>20.1254903706504</v>
+        <v>14.5150104154916</v>
       </c>
       <c r="D21">
-        <v>3.890011744530496</v>
+        <v>5.267828057504172</v>
       </c>
       <c r="E21">
-        <v>6.325351650163628</v>
+        <v>7.999374824040024</v>
       </c>
       <c r="F21">
-        <v>51.24631183786887</v>
+        <v>25.64069638974386</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>1.694783644532113</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.561173323411946</v>
       </c>
       <c r="J21">
-        <v>5.716425011067876</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.2103604819025</v>
       </c>
       <c r="L21">
-        <v>7.091848665109484</v>
+        <v>6.33276273517122</v>
       </c>
       <c r="M21">
-        <v>18.43595943260924</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>15.18135524792247</v>
+        <v>7.719974563889062</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.76856008688145</v>
+      </c>
+      <c r="P21">
+        <v>12.61917946002985</v>
+      </c>
+      <c r="Q21">
+        <v>18.76022197115326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.86402182662282</v>
+        <v>24.66433069367729</v>
       </c>
       <c r="C22">
-        <v>20.96408003950448</v>
+        <v>14.93913546440463</v>
       </c>
       <c r="D22">
-        <v>4.057060521278584</v>
+        <v>5.333392484458663</v>
       </c>
       <c r="E22">
-        <v>6.393889215206137</v>
+        <v>8.051070969275292</v>
       </c>
       <c r="F22">
-        <v>52.54265442842545</v>
+        <v>26.05288911917801</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>1.585133941125456</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.677025708760322</v>
       </c>
       <c r="J22">
-        <v>5.688412555020102</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.25168773865854</v>
       </c>
       <c r="L22">
-        <v>7.16770096871665</v>
+        <v>6.364397772284719</v>
       </c>
       <c r="M22">
-        <v>18.94424424878239</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>15.03069983114805</v>
+        <v>7.847577904293454</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.17865397842428</v>
+      </c>
+      <c r="P22">
+        <v>12.53753812921738</v>
+      </c>
+      <c r="Q22">
+        <v>19.0045407250588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.21468431939883</v>
+        <v>24.23372295956418</v>
       </c>
       <c r="C23">
-        <v>20.51833819750413</v>
+        <v>14.6950044028851</v>
       </c>
       <c r="D23">
-        <v>3.968000835172603</v>
+        <v>5.29676028155863</v>
       </c>
       <c r="E23">
-        <v>6.357162364621437</v>
+        <v>8.024949108777433</v>
       </c>
       <c r="F23">
-        <v>51.84799841199565</v>
+        <v>25.85589150031608</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.619187228346554</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.610028732458734</v>
       </c>
       <c r="J23">
-        <v>5.70335764058826</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.24698007768606</v>
       </c>
       <c r="L23">
-        <v>7.126865838930528</v>
+        <v>6.347970302911913</v>
       </c>
       <c r="M23">
-        <v>18.6727860726084</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>15.11057541921194</v>
+        <v>7.775724356304154</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.96357200046176</v>
+      </c>
+      <c r="P23">
+        <v>12.57815003862783</v>
+      </c>
+      <c r="Q23">
+        <v>18.89197701280073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.72097323056715</v>
+        <v>22.50366261152078</v>
       </c>
       <c r="C24">
-        <v>18.78810340996417</v>
+        <v>13.76896991552046</v>
       </c>
       <c r="D24">
-        <v>3.627963495711643</v>
+        <v>5.160075740340564</v>
       </c>
       <c r="E24">
-        <v>6.220966005836035</v>
+        <v>7.922436493690889</v>
       </c>
       <c r="F24">
-        <v>49.27567774794293</v>
+        <v>25.07848686055066</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.944894022583365</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.630852238593813</v>
       </c>
       <c r="J24">
-        <v>5.760154446938494</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.21185702293606</v>
       </c>
       <c r="L24">
-        <v>6.979725551166887</v>
+        <v>6.28376488509003</v>
       </c>
       <c r="M24">
-        <v>17.64819801662217</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>15.4242894882335</v>
+        <v>7.505657452307045</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.11676161346243</v>
+      </c>
+      <c r="P24">
+        <v>12.74083887764947</v>
+      </c>
+      <c r="Q24">
+        <v>18.44589832220542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95141361144227</v>
+        <v>20.47334621821488</v>
       </c>
       <c r="C25">
-        <v>16.82125431785587</v>
+        <v>12.70172260951585</v>
       </c>
       <c r="D25">
-        <v>3.251960691994636</v>
+        <v>5.011632421925937</v>
       </c>
       <c r="E25">
-        <v>6.078405291368031</v>
+        <v>7.808749718574086</v>
       </c>
       <c r="F25">
-        <v>46.6144619436812</v>
+        <v>24.25621014633115</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.311359927431181</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.918647652253076</v>
       </c>
       <c r="J25">
-        <v>5.822238179494789</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.1981586125235</v>
       </c>
       <c r="L25">
-        <v>6.83593204519291</v>
+        <v>6.211396621226398</v>
       </c>
       <c r="M25">
-        <v>16.54938236774271</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.78397458661631</v>
+        <v>7.206092862500276</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.14562894909507</v>
+      </c>
+      <c r="P25">
+        <v>12.92501002030715</v>
+      </c>
+      <c r="Q25">
+        <v>17.98662642317709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.87912131635342</v>
+        <v>18.52140138178626</v>
       </c>
       <c r="C2">
-        <v>11.80244280471696</v>
+        <v>12.04332033059089</v>
       </c>
       <c r="D2">
-        <v>4.897577938720155</v>
+        <v>4.983882724957966</v>
       </c>
       <c r="E2">
-        <v>7.725845851160891</v>
+        <v>7.714451694681433</v>
       </c>
       <c r="F2">
-        <v>23.7286544282437</v>
+        <v>23.03210030118622</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.592202550707831</v>
+        <v>2.485810662766955</v>
       </c>
       <c r="I2">
-        <v>3.11668969466529</v>
+        <v>2.980846130608199</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>16.25145668702497</v>
+        <v>15.59415023188217</v>
       </c>
       <c r="L2">
-        <v>6.156506813151958</v>
+        <v>12.87652246702278</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.20505643196103</v>
       </c>
       <c r="N2">
-        <v>6.969051939861437</v>
+        <v>6.129411295865569</v>
       </c>
       <c r="O2">
-        <v>12.39110928684892</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.06279527839572</v>
+        <v>7.155158039390247</v>
       </c>
       <c r="Q2">
-        <v>17.71513017864063</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.311668632055</v>
+      </c>
+      <c r="R2">
+        <v>12.9826537424404</v>
+      </c>
+      <c r="S2">
+        <v>17.14296502820059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.68829986949543</v>
+        <v>17.36621585525934</v>
       </c>
       <c r="C3">
-        <v>11.18754845878365</v>
+        <v>11.34221705177242</v>
       </c>
       <c r="D3">
-        <v>4.822682759158839</v>
+        <v>4.907485224001965</v>
       </c>
       <c r="E3">
-        <v>7.665496474649913</v>
+        <v>7.659799399617359</v>
       </c>
       <c r="F3">
-        <v>23.34817019108922</v>
+        <v>22.70559869923787</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.792938589597388</v>
+        <v>2.67516545989644</v>
       </c>
       <c r="I3">
-        <v>3.274150439797424</v>
+        <v>3.123257770157997</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>16.27331480518385</v>
+        <v>15.64949720197036</v>
       </c>
       <c r="L3">
-        <v>6.116754653400312</v>
+        <v>13.00032441494897</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.18738471552562</v>
       </c>
       <c r="N3">
-        <v>6.811161511605953</v>
+        <v>6.089424396258012</v>
       </c>
       <c r="O3">
-        <v>11.84913075132252</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.16392305771758</v>
+        <v>6.993210559514655</v>
       </c>
       <c r="Q3">
-        <v>17.51651313701618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.7733314708516</v>
+      </c>
+      <c r="R3">
+        <v>13.06400129003431</v>
+      </c>
+      <c r="S3">
+        <v>16.98477821969547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.91324098312858</v>
+        <v>16.6132912800702</v>
       </c>
       <c r="C4">
-        <v>10.79389007995241</v>
+        <v>10.89234188529846</v>
       </c>
       <c r="D4">
-        <v>4.776837268684861</v>
+        <v>4.86085381588892</v>
       </c>
       <c r="E4">
-        <v>7.627311876392878</v>
+        <v>7.625192489361122</v>
       </c>
       <c r="F4">
-        <v>23.11955036739757</v>
+        <v>22.50941110640234</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.920748796833637</v>
+        <v>2.795774068046352</v>
       </c>
       <c r="I4">
-        <v>3.375185587668289</v>
+        <v>3.214953704704129</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>16.2911688744278</v>
+        <v>15.68681025800283</v>
       </c>
       <c r="L4">
-        <v>6.091359699674459</v>
+        <v>13.07714508352302</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.19556008422114</v>
       </c>
       <c r="N4">
-        <v>6.713103842037323</v>
+        <v>6.063937594337813</v>
       </c>
       <c r="O4">
-        <v>11.50391757744512</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.2282771663149</v>
+        <v>6.892973190543679</v>
       </c>
       <c r="Q4">
-        <v>17.39974465471952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.4301007365295</v>
+      </c>
+      <c r="R4">
+        <v>13.11663678077575</v>
+      </c>
+      <c r="S4">
+        <v>16.89207092824478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.58141618904198</v>
+        <v>16.29050169851708</v>
       </c>
       <c r="C5">
-        <v>10.63587591419926</v>
+        <v>10.71090894866947</v>
       </c>
       <c r="D5">
-        <v>4.758663532682786</v>
+        <v>4.842398441626809</v>
       </c>
       <c r="E5">
-        <v>7.611029944841717</v>
+        <v>7.610400372461299</v>
       </c>
       <c r="F5">
-        <v>23.02107786648169</v>
+        <v>22.42397070010442</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.974309743917481</v>
+        <v>2.846339902717212</v>
       </c>
       <c r="I5">
-        <v>3.420147375652308</v>
+        <v>3.256554812198924</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>16.29487739956524</v>
+        <v>15.6982928154611</v>
       </c>
       <c r="L5">
-        <v>6.080598899672804</v>
+        <v>13.10438371946828</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.20109137789374</v>
       </c>
       <c r="N5">
-        <v>6.674036983140651</v>
+        <v>6.053169871745681</v>
       </c>
       <c r="O5">
-        <v>11.35949094154351</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.25547665369329</v>
+        <v>6.853100964866783</v>
       </c>
       <c r="Q5">
-        <v>17.34839911121398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.28641041409303</v>
+      </c>
+      <c r="R5">
+        <v>13.1392682230431</v>
+      </c>
+      <c r="S5">
+        <v>16.85034980228626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.51953319095111</v>
+        <v>16.23009344130724</v>
       </c>
       <c r="C6">
-        <v>10.61721211332018</v>
+        <v>10.68868281177736</v>
       </c>
       <c r="D6">
-        <v>4.756213829842255</v>
+        <v>4.83990730283665</v>
       </c>
       <c r="E6">
-        <v>7.607782460181281</v>
+        <v>7.607415921825771</v>
       </c>
       <c r="F6">
-        <v>22.99669189841903</v>
+        <v>22.40176299201174</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.983659830400697</v>
+        <v>2.855182771393185</v>
       </c>
       <c r="I6">
-        <v>3.431127991866641</v>
+        <v>3.267597415684163</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>16.28987148519974</v>
+        <v>15.69470744309225</v>
       </c>
       <c r="L6">
-        <v>6.078602247243573</v>
+        <v>13.10370532872356</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.19916445759495</v>
       </c>
       <c r="N6">
-        <v>6.668927588135178</v>
+        <v>6.051193923757479</v>
       </c>
       <c r="O6">
-        <v>11.33437450335179</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.26053521354048</v>
+        <v>6.847862644256663</v>
       </c>
       <c r="Q6">
-        <v>17.333744652144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.26140800640392</v>
+      </c>
+      <c r="R6">
+        <v>13.14370333958517</v>
+      </c>
+      <c r="S6">
+        <v>16.8373136316512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.89247085221848</v>
+        <v>16.59257879045283</v>
       </c>
       <c r="C7">
-        <v>10.81274089900481</v>
+        <v>10.91186579910237</v>
       </c>
       <c r="D7">
-        <v>4.778127153307317</v>
+        <v>4.862149393830192</v>
       </c>
       <c r="E7">
-        <v>7.625675437696472</v>
+        <v>7.623617235279734</v>
       </c>
       <c r="F7">
-        <v>23.09617705889336</v>
+        <v>22.48630624371373</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.922501736442575</v>
+        <v>2.7974684915674</v>
       </c>
       <c r="I7">
-        <v>3.384916773897594</v>
+        <v>3.22627287896744</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>16.27570121758819</v>
+        <v>15.67188179747106</v>
       </c>
       <c r="L7">
-        <v>6.09070030867184</v>
+        <v>13.06363211528038</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.18670108867589</v>
       </c>
       <c r="N7">
-        <v>6.716349959135556</v>
+        <v>6.063338185411852</v>
       </c>
       <c r="O7">
-        <v>11.49939280183744</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.23009625107187</v>
+        <v>6.896210744227763</v>
       </c>
       <c r="Q7">
-        <v>17.38216347912439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.42557645915782</v>
+      </c>
+      <c r="R7">
+        <v>13.11876110147119</v>
+      </c>
+      <c r="S7">
+        <v>16.87472672317513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.45765133299725</v>
+        <v>18.11210170248875</v>
       </c>
       <c r="C8">
-        <v>11.61995320338119</v>
+        <v>11.8329248876691</v>
       </c>
       <c r="D8">
-        <v>4.873730744945958</v>
+        <v>4.959507741707167</v>
       </c>
       <c r="E8">
-        <v>7.703472010981304</v>
+        <v>7.694087413605644</v>
       </c>
       <c r="F8">
-        <v>23.56793583280307</v>
+        <v>22.89030562014793</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.661770866674144</v>
+        <v>2.551471035399604</v>
       </c>
       <c r="I8">
-        <v>3.181774414568458</v>
+        <v>3.042863751790224</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>16.23762478739721</v>
+        <v>15.59280310602428</v>
       </c>
       <c r="L8">
-        <v>6.14238760747301</v>
+        <v>12.90217380102461</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.18177156119804</v>
       </c>
       <c r="N8">
-        <v>6.919730232881902</v>
+        <v>6.115290863004795</v>
       </c>
       <c r="O8">
-        <v>12.20363765942763</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.09941109263345</v>
+        <v>7.104393445064979</v>
       </c>
       <c r="Q8">
-        <v>17.62360057446777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.1254941389745</v>
+      </c>
+      <c r="R8">
+        <v>13.01290422009406</v>
+      </c>
+      <c r="S8">
+        <v>17.0657213797092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.20326387743598</v>
+        <v>20.77110886091932</v>
       </c>
       <c r="C9">
-        <v>13.03817671473065</v>
+        <v>13.44673296481186</v>
       </c>
       <c r="D9">
-        <v>5.059105444088938</v>
+        <v>5.14929687641922</v>
       </c>
       <c r="E9">
-        <v>7.849768734996042</v>
+        <v>7.826555123219357</v>
       </c>
       <c r="F9">
-        <v>24.56788209534887</v>
+        <v>23.75262350499219</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.184230692747928</v>
+        <v>2.101237505919158</v>
       </c>
       <c r="I9">
-        <v>2.802539376502741</v>
+        <v>2.698967745754872</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>16.22713636750847</v>
+        <v>15.49198976796317</v>
       </c>
       <c r="L9">
-        <v>6.236912561504352</v>
+        <v>12.6138583187151</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.34187046996165</v>
       </c>
       <c r="N9">
-        <v>7.301707045317618</v>
+        <v>6.210612559329772</v>
       </c>
       <c r="O9">
-        <v>13.48430961125424</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.85819531687482</v>
+        <v>7.498006600411545</v>
       </c>
       <c r="Q9">
-        <v>18.16720577518756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.39585300176264</v>
+      </c>
+      <c r="R9">
+        <v>12.82322324229048</v>
+      </c>
+      <c r="S9">
+        <v>17.50476732933711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.96028936671767</v>
+        <v>22.47171252846756</v>
       </c>
       <c r="C10">
-        <v>14.02707417443663</v>
+        <v>14.55794491647546</v>
       </c>
       <c r="D10">
-        <v>5.172089429229244</v>
+        <v>5.265207456132178</v>
       </c>
       <c r="E10">
-        <v>7.926990138472455</v>
+        <v>7.896201379764345</v>
       </c>
       <c r="F10">
-        <v>25.188177927217</v>
+        <v>24.27908954245121</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.883598760628961</v>
+        <v>1.819762839849194</v>
       </c>
       <c r="I10">
-        <v>2.555231240674844</v>
+        <v>2.504727919709969</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>16.17661489673579</v>
+        <v>15.37801356379585</v>
       </c>
       <c r="L10">
-        <v>6.302723463378268</v>
+        <v>12.36336398334131</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.50199513519248</v>
       </c>
       <c r="N10">
-        <v>7.510936506760254</v>
+        <v>6.279057562404586</v>
       </c>
       <c r="O10">
-        <v>14.28897332543754</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.70434757423035</v>
+        <v>7.715097699387274</v>
       </c>
       <c r="Q10">
-        <v>18.50622352015588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.19274611025532</v>
+      </c>
+      <c r="R10">
+        <v>12.71119998709687</v>
+      </c>
+      <c r="S10">
+        <v>17.77144593909717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.35532706678081</v>
+        <v>22.89497954177711</v>
       </c>
       <c r="C11">
-        <v>14.65802418298076</v>
+        <v>15.19268276296975</v>
       </c>
       <c r="D11">
-        <v>5.024156576822835</v>
+        <v>5.111484791632226</v>
       </c>
       <c r="E11">
-        <v>7.814756059081141</v>
+        <v>7.799578232851879</v>
       </c>
       <c r="F11">
-        <v>24.38192234876378</v>
+        <v>23.50300986357705</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.837646990788384</v>
+        <v>2.799027766183352</v>
       </c>
       <c r="I11">
-        <v>2.506113810331795</v>
+        <v>2.579888945587582</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>15.6218898313205</v>
+        <v>14.86562191717878</v>
       </c>
       <c r="L11">
-        <v>6.376615913776278</v>
+        <v>11.92937225976623</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.20063643348363</v>
       </c>
       <c r="N11">
-        <v>7.060843721116641</v>
+        <v>6.369061593836629</v>
       </c>
       <c r="O11">
-        <v>14.07748236409239</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.7499129964342</v>
+        <v>7.25264896199448</v>
       </c>
       <c r="Q11">
-        <v>17.97719074117441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.98398949104036</v>
+      </c>
+      <c r="R11">
+        <v>12.78597250576073</v>
+      </c>
+      <c r="S11">
+        <v>17.2672589896747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.34699429950768</v>
+        <v>22.91743242655507</v>
       </c>
       <c r="C12">
-        <v>14.96500423141229</v>
+        <v>15.47591064347749</v>
       </c>
       <c r="D12">
-        <v>4.875778382153812</v>
+        <v>4.957389130415981</v>
       </c>
       <c r="E12">
-        <v>7.80131923574244</v>
+        <v>7.799997610810832</v>
       </c>
       <c r="F12">
-        <v>23.58532375548173</v>
+        <v>22.7524921345975</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.198545872858041</v>
+        <v>4.172383545381633</v>
       </c>
       <c r="I12">
-        <v>2.508927252084408</v>
+        <v>2.589834577360322</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>15.18756965361658</v>
+        <v>14.48059351625774</v>
       </c>
       <c r="L12">
-        <v>6.473531622903102</v>
+        <v>11.64248172596668</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.918583528683568</v>
       </c>
       <c r="N12">
-        <v>6.646989203150626</v>
+        <v>6.47750068225212</v>
       </c>
       <c r="O12">
-        <v>13.72766602149615</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.83273979523514</v>
+        <v>6.825648498672054</v>
       </c>
       <c r="Q12">
-        <v>17.47186979453619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.6383016707208</v>
+      </c>
+      <c r="R12">
+        <v>12.88156108411517</v>
+      </c>
+      <c r="S12">
+        <v>16.79883902135669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.00878453584756</v>
+        <v>22.61236134992312</v>
       </c>
       <c r="C13">
-        <v>15.07539244900527</v>
+        <v>15.54064768163963</v>
       </c>
       <c r="D13">
-        <v>4.719696086743307</v>
+        <v>4.79543051454374</v>
       </c>
       <c r="E13">
-        <v>7.858064182234746</v>
+        <v>7.869176869821574</v>
       </c>
       <c r="F13">
-        <v>22.70658578289283</v>
+        <v>21.93574656538691</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.61467683915128</v>
+        <v>5.593536515576608</v>
       </c>
       <c r="I13">
-        <v>2.528870975885683</v>
+        <v>2.558113710312354</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>14.79719607956395</v>
+        <v>14.14831295918859</v>
       </c>
       <c r="L13">
-        <v>6.589053030680709</v>
+        <v>11.42566367345277</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.620061011037336</v>
       </c>
       <c r="N13">
-        <v>6.241715593516801</v>
+        <v>6.601339618740018</v>
       </c>
       <c r="O13">
-        <v>13.23845868313909</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.94731239057784</v>
+        <v>6.406083153707488</v>
       </c>
       <c r="Q13">
-        <v>16.92422313690098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.15455545833434</v>
+      </c>
+      <c r="R13">
+        <v>12.99749179733416</v>
+      </c>
+      <c r="S13">
+        <v>16.30029491777798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.61393858203186</v>
+        <v>22.24229882715115</v>
       </c>
       <c r="C14">
-        <v>15.07047668142189</v>
+        <v>15.49338854852607</v>
       </c>
       <c r="D14">
-        <v>4.60822060754753</v>
+        <v>4.679863183439098</v>
       </c>
       <c r="E14">
-        <v>7.939671300188819</v>
+        <v>7.958230294346357</v>
       </c>
       <c r="F14">
-        <v>22.04688050848453</v>
+        <v>21.32674521357668</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.621325232765144</v>
+        <v>6.60185510209778</v>
       </c>
       <c r="I14">
-        <v>2.575978138573299</v>
+        <v>2.518953603970791</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>14.54359749138476</v>
+        <v>13.93876689314377</v>
       </c>
       <c r="L14">
-        <v>6.682239551711473</v>
+        <v>11.30072689785873</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.406466512745688</v>
       </c>
       <c r="N14">
-        <v>5.968573216197284</v>
+        <v>6.698551329269867</v>
       </c>
       <c r="O14">
-        <v>12.82669575760567</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.04265885419111</v>
+        <v>6.122581573373174</v>
       </c>
       <c r="Q14">
-        <v>16.51687327262778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.74719122857782</v>
+      </c>
+      <c r="R14">
+        <v>13.08849442720231</v>
+      </c>
+      <c r="S14">
+        <v>15.93285039946027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.44085614034276</v>
+        <v>22.07556819631791</v>
       </c>
       <c r="C15">
-        <v>15.03390997662048</v>
+        <v>15.4419806224735</v>
       </c>
       <c r="D15">
-        <v>4.579607610516963</v>
+        <v>4.650282630390247</v>
       </c>
       <c r="E15">
-        <v>7.961293805413677</v>
+        <v>7.981451223611156</v>
       </c>
       <c r="F15">
-        <v>21.86351921777459</v>
+        <v>21.15900229983436</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.856349674217005</v>
+        <v>6.836839425020552</v>
       </c>
       <c r="I15">
-        <v>2.602138352750526</v>
+        <v>2.526555954313008</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>14.48706623052911</v>
+        <v>13.89470774179715</v>
       </c>
       <c r="L15">
-        <v>6.70272637827415</v>
+        <v>11.2792672658535</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.350280745602149</v>
       </c>
       <c r="N15">
-        <v>5.903106587669121</v>
+        <v>6.719522025401211</v>
       </c>
       <c r="O15">
-        <v>12.69564536003139</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.07152031437187</v>
+        <v>6.054617270865012</v>
       </c>
       <c r="Q15">
-        <v>16.40456919156637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.61746081171128</v>
+      </c>
+      <c r="R15">
+        <v>13.11429082125709</v>
+      </c>
+      <c r="S15">
+        <v>15.83275576533727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.75709906247221</v>
+        <v>21.40026850932394</v>
       </c>
       <c r="C16">
-        <v>14.62495355149497</v>
+        <v>14.9903971630448</v>
       </c>
       <c r="D16">
-        <v>4.561941167504317</v>
+        <v>4.632869686382517</v>
       </c>
       <c r="E16">
-        <v>7.909965433627768</v>
+        <v>7.929461497226425</v>
       </c>
       <c r="F16">
-        <v>21.74218259118144</v>
+        <v>21.06619380672429</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.662864451239575</v>
+        <v>6.639151637300566</v>
       </c>
       <c r="I16">
-        <v>2.706506918730778</v>
+        <v>2.62159314490251</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>14.58155421951509</v>
+        <v>14.0028718782484</v>
       </c>
       <c r="L16">
-        <v>6.646436478318851</v>
+        <v>11.39475377147443</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.349678811359812</v>
       </c>
       <c r="N16">
-        <v>5.891242368707931</v>
+        <v>6.659501274953726</v>
       </c>
       <c r="O16">
-        <v>12.43118970618568</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.10233108737789</v>
+        <v>6.043375755072184</v>
       </c>
       <c r="Q16">
-        <v>16.34902991747486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.35519692390515</v>
+      </c>
+      <c r="R16">
+        <v>13.1262302411582</v>
+      </c>
+      <c r="S16">
+        <v>15.79880088823533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.44163962650543</v>
+        <v>21.08334227107308</v>
       </c>
       <c r="C17">
-        <v>14.30811382361106</v>
+        <v>14.66371196409418</v>
       </c>
       <c r="D17">
-        <v>4.607674407766466</v>
+        <v>4.680886715097261</v>
       </c>
       <c r="E17">
-        <v>7.81968536358884</v>
+        <v>7.835204483013454</v>
       </c>
       <c r="F17">
-        <v>22.00533672330891</v>
+        <v>21.32399532177736</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.950623521593945</v>
+        <v>5.921780097084568</v>
       </c>
       <c r="I17">
-        <v>2.762401561809599</v>
+        <v>2.672830081729747</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>14.78661952277623</v>
+        <v>14.19568108134509</v>
       </c>
       <c r="L17">
-        <v>6.550318262337253</v>
+        <v>11.55565609743805</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.458588562663262</v>
       </c>
       <c r="N17">
-        <v>6.025296415109737</v>
+        <v>6.558678652122955</v>
       </c>
       <c r="O17">
-        <v>12.45336573775111</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.07703575689985</v>
+        <v>6.183139812244539</v>
       </c>
       <c r="Q17">
-        <v>16.52592236844668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.37670636851934</v>
+      </c>
+      <c r="R17">
+        <v>13.0890962665166</v>
+      </c>
+      <c r="S17">
+        <v>15.97087101753954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.42827073884871</v>
+        <v>21.05050204783875</v>
       </c>
       <c r="C18">
-        <v>14.0246242976172</v>
+        <v>14.39738549611997</v>
       </c>
       <c r="D18">
-        <v>4.714919828841522</v>
+        <v>4.792363667402965</v>
       </c>
       <c r="E18">
-        <v>7.731103700807111</v>
+        <v>7.738381030762165</v>
       </c>
       <c r="F18">
-        <v>22.64098949804065</v>
+        <v>21.92479519179112</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.743582351729756</v>
+        <v>4.706686689427581</v>
       </c>
       <c r="I18">
-        <v>2.770433173309159</v>
+        <v>2.677859585867405</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>15.12401133947428</v>
+        <v>14.49686438460688</v>
       </c>
       <c r="L18">
-        <v>6.429125176475144</v>
+        <v>11.78886989564795</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.675559229306293</v>
       </c>
       <c r="N18">
-        <v>6.314216393819497</v>
+        <v>6.430573862129553</v>
       </c>
       <c r="O18">
-        <v>12.72720754974646</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.00386273056004</v>
+        <v>6.482286957837502</v>
       </c>
       <c r="Q18">
-        <v>16.93171267462255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.64745081091075</v>
+      </c>
+      <c r="R18">
+        <v>13.00739157684503</v>
+      </c>
+      <c r="S18">
+        <v>16.34881105686003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.63316782992378</v>
+        <v>21.2234520247067</v>
       </c>
       <c r="C19">
-        <v>13.82771649632007</v>
+        <v>14.23824278088272</v>
       </c>
       <c r="D19">
-        <v>4.870028033717477</v>
+        <v>4.953061919146054</v>
       </c>
       <c r="E19">
-        <v>7.718588934806681</v>
+        <v>7.713481773295381</v>
       </c>
       <c r="F19">
-        <v>23.48927666138556</v>
+        <v>22.71751526664444</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.344204538722042</v>
+        <v>3.293931165764184</v>
       </c>
       <c r="I19">
-        <v>2.757865898533694</v>
+        <v>2.668200330540257</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>15.52581062961408</v>
+        <v>14.84631613832312</v>
       </c>
       <c r="L19">
-        <v>6.329168724892218</v>
+        <v>12.05138156330646</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.94726275809648</v>
       </c>
       <c r="N19">
-        <v>6.732044487339698</v>
+        <v>6.321283568152134</v>
       </c>
       <c r="O19">
-        <v>13.17284524399289</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.91211888227856</v>
+        <v>6.913097034321137</v>
       </c>
       <c r="Q19">
-        <v>17.46091381515839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.08828540320003</v>
+      </c>
+      <c r="R19">
+        <v>12.90960582971024</v>
+      </c>
+      <c r="S19">
+        <v>16.83408171226508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.47157688544391</v>
+        <v>21.99785596861776</v>
       </c>
       <c r="C20">
-        <v>13.82756054069084</v>
+        <v>14.32896420074242</v>
       </c>
       <c r="D20">
-        <v>5.145864387664938</v>
+        <v>5.238214043951531</v>
       </c>
       <c r="E20">
-        <v>7.902014498862228</v>
+        <v>7.873442281318079</v>
       </c>
       <c r="F20">
-        <v>24.95562472295647</v>
+        <v>24.07211132661376</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.963162654070072</v>
+        <v>1.894203525733195</v>
       </c>
       <c r="I20">
-        <v>2.6515256493407</v>
+        <v>2.573557094526723</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>16.13832284520019</v>
+        <v>15.35922552581298</v>
       </c>
       <c r="L20">
-        <v>6.284598054787272</v>
+        <v>12.3940855511903</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.41608306235596</v>
       </c>
       <c r="N20">
-        <v>7.46417716882705</v>
+        <v>6.260543444259545</v>
       </c>
       <c r="O20">
-        <v>14.07249019927282</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.75113314608009</v>
+        <v>7.666242636957746</v>
       </c>
       <c r="Q20">
-        <v>18.36296878482636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.9783860119135</v>
+      </c>
+      <c r="R20">
+        <v>12.74840143303387</v>
+      </c>
+      <c r="S20">
+        <v>17.64818041928792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.82449038469283</v>
+        <v>23.32046499850726</v>
       </c>
       <c r="C21">
-        <v>14.5150104154916</v>
+        <v>15.11339012123433</v>
       </c>
       <c r="D21">
-        <v>5.267828057504172</v>
+        <v>5.363799460145572</v>
       </c>
       <c r="E21">
-        <v>7.999374824040024</v>
+        <v>7.96170522495097</v>
       </c>
       <c r="F21">
-        <v>25.64069638974386</v>
+        <v>24.67219863315751</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.694783644532113</v>
+        <v>1.640364600924976</v>
       </c>
       <c r="I21">
-        <v>2.561173323411946</v>
+        <v>2.637734066055606</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>16.2103604819025</v>
+        <v>15.36789352633382</v>
       </c>
       <c r="L21">
-        <v>6.33276273517122</v>
+        <v>12.26974057531077</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.63771516546949</v>
       </c>
       <c r="N21">
-        <v>7.719974563889062</v>
+        <v>6.30802545492786</v>
       </c>
       <c r="O21">
-        <v>14.76856008688145</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.61917946002985</v>
+        <v>7.931075379834929</v>
       </c>
       <c r="Q21">
-        <v>18.76022197115326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.66712079925905</v>
+      </c>
+      <c r="R21">
+        <v>12.6473715526888</v>
+      </c>
+      <c r="S21">
+        <v>17.9791184873249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.66433069367729</v>
+        <v>24.1513018152204</v>
       </c>
       <c r="C22">
-        <v>14.93913546440463</v>
+        <v>15.5944592833144</v>
       </c>
       <c r="D22">
-        <v>5.333392484458663</v>
+        <v>5.431345038537248</v>
       </c>
       <c r="E22">
-        <v>8.051070969275292</v>
+        <v>8.008542124390832</v>
       </c>
       <c r="F22">
-        <v>26.05288911917801</v>
+        <v>25.0331012877109</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.585133941125456</v>
+        <v>1.62910045318293</v>
       </c>
       <c r="I22">
-        <v>2.677025708760322</v>
+        <v>2.740931117365665</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>16.25168773865854</v>
+        <v>15.36995683226383</v>
       </c>
       <c r="L22">
-        <v>6.364397772284719</v>
+        <v>12.18223733284849</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.79255287479929</v>
       </c>
       <c r="N22">
-        <v>7.847577904293454</v>
+        <v>6.34002745198383</v>
       </c>
       <c r="O22">
-        <v>15.17865397842428</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.53753812921738</v>
+        <v>8.063758294189839</v>
       </c>
       <c r="Q22">
-        <v>19.0045407250588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.07265685040003</v>
+      </c>
+      <c r="R22">
+        <v>12.58640430977669</v>
+      </c>
+      <c r="S22">
+        <v>18.18312244032505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.23372295956418</v>
+        <v>23.7255853495478</v>
       </c>
       <c r="C23">
-        <v>14.6950044028851</v>
+        <v>15.31957793219928</v>
       </c>
       <c r="D23">
-        <v>5.29676028155863</v>
+        <v>5.393627727106881</v>
       </c>
       <c r="E23">
-        <v>8.024949108777433</v>
+        <v>7.984937899978722</v>
       </c>
       <c r="F23">
-        <v>25.85589150031608</v>
+        <v>24.86324383510367</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.619187228346554</v>
+        <v>1.569178288506469</v>
       </c>
       <c r="I23">
-        <v>2.610028732458734</v>
+        <v>2.679299060939114</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>16.24698007768606</v>
+        <v>15.38545443803443</v>
       </c>
       <c r="L23">
-        <v>6.347970302911913</v>
+        <v>12.24051837243802</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.72287511019376</v>
       </c>
       <c r="N23">
-        <v>7.775724356304154</v>
+        <v>6.323296900935521</v>
       </c>
       <c r="O23">
-        <v>14.96357200046176</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.57815003862783</v>
+        <v>7.989146141524647</v>
       </c>
       <c r="Q23">
-        <v>18.89197701280073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.8600168058614</v>
+      </c>
+      <c r="R23">
+        <v>12.61531429923349</v>
+      </c>
+      <c r="S23">
+        <v>18.09185404056776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.50366261152078</v>
+        <v>22.02706482643053</v>
       </c>
       <c r="C24">
-        <v>13.76896991552046</v>
+        <v>14.27219370401061</v>
       </c>
       <c r="D24">
-        <v>5.160075740340564</v>
+        <v>5.252979364392536</v>
       </c>
       <c r="E24">
-        <v>7.922436493690889</v>
+        <v>7.892194749158225</v>
       </c>
       <c r="F24">
-        <v>25.07848686055066</v>
+        <v>24.18938666437309</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.944894022583365</v>
+        <v>1.875814837528226</v>
       </c>
       <c r="I24">
-        <v>2.630852238593813</v>
+        <v>2.54913437877826</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>16.21185702293606</v>
+        <v>15.42611353842214</v>
       </c>
       <c r="L24">
-        <v>6.28376488509003</v>
+        <v>12.44493684318685</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.46695166660007</v>
       </c>
       <c r="N24">
-        <v>7.505657452307045</v>
+        <v>6.258181634482186</v>
       </c>
       <c r="O24">
-        <v>14.11676161346243</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.74083887764947</v>
+        <v>7.708928499831877</v>
       </c>
       <c r="Q24">
-        <v>18.44589832220542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.02219725672024</v>
+      </c>
+      <c r="R24">
+        <v>12.73579235767079</v>
+      </c>
+      <c r="S24">
+        <v>17.72656284053548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.47334621821488</v>
+        <v>20.06418475695998</v>
       </c>
       <c r="C25">
-        <v>12.70172260951585</v>
+        <v>13.06146207552592</v>
       </c>
       <c r="D25">
-        <v>5.011632421925937</v>
+        <v>5.100564710223527</v>
       </c>
       <c r="E25">
-        <v>7.808749718574086</v>
+        <v>7.789306746684181</v>
       </c>
       <c r="F25">
-        <v>24.25621014633115</v>
+        <v>23.47880156640893</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.311359927431181</v>
+        <v>2.221100654092876</v>
       </c>
       <c r="I25">
-        <v>2.918647652253076</v>
+        <v>2.808782621998249</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>16.1981586125235</v>
+        <v>15.48956539293332</v>
       </c>
       <c r="L25">
-        <v>6.211396621226398</v>
+        <v>12.67052600526099</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.2623428978404</v>
       </c>
       <c r="N25">
-        <v>7.206092862500276</v>
+        <v>6.184979496361795</v>
       </c>
       <c r="O25">
-        <v>13.14562894909507</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.92501002030715</v>
+        <v>7.399076612385463</v>
       </c>
       <c r="Q25">
-        <v>17.98662642317709</v>
+        <v>13.06013206650876</v>
+      </c>
+      <c r="R25">
+        <v>12.87651445176484</v>
+      </c>
+      <c r="S25">
+        <v>17.35327290761553</v>
       </c>
     </row>
   </sheetData>
